--- a/hardware/reference/Breadboard-1/CALCULATIONS.xlsx
+++ b/hardware/reference/Breadboard-1/CALCULATIONS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bicknell/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bicknell/Documents/DCC Reference Implementation/main/DCC-Mobile-Decoder/hardware/reference/Breadboard-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373AE8FE-7CA3-1D48-96C8-B83FD2A1D629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C4DF94-D77F-BC48-B62F-0898B1BB646F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21380" yWindow="6200" windowWidth="26680" windowHeight="20320" xr2:uid="{E2FDA5F7-4457-0342-8592-4B5131180552}"/>
+    <workbookView xWindow="5820" yWindow="4660" windowWidth="26680" windowHeight="20320" activeTab="4" xr2:uid="{E2FDA5F7-4457-0342-8592-4B5131180552}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="419">
   <si>
     <t>Properties</t>
   </si>
@@ -290,9 +290,6 @@
     <t>1/8 Watt resistors sufficient.</t>
   </si>
   <si>
-    <t>Ppullup &lt; 1/8W</t>
-  </si>
-  <si>
     <t>DTC143ZCA</t>
   </si>
   <si>
@@ -887,9 +884,6 @@
     <t>Q55_Vdss &gt; DCC (max)</t>
   </si>
   <si>
-    <t>Q55_Vgs &lt; µC V</t>
-  </si>
-  <si>
     <t>Q55_Max Gate I &lt; Igpio (max)</t>
   </si>
   <si>
@@ -902,9 +896,6 @@
     <t>Q55_Igate(max)</t>
   </si>
   <si>
-    <t>Q51_Vdss &gt; Vdcc(max)</t>
-  </si>
-  <si>
     <t>For the high side of the circuit, the SL2309 is a 60V 1.6A P-Channel MOSFET.  For low side of the circuit the DMN6140 is a 60V, 2.1A N-Channel MOSFET.  Both MOSFETs are designed for power switching applications.  The DTC143ZCA is a pre-biased (4.7K &amp; 47K) "digital transitor" which saves two resistors per transitor.</t>
   </si>
   <si>
@@ -1022,27 +1013,15 @@
     <t>R32_R</t>
   </si>
   <si>
-    <t>Q51_Vgs(th,max) &gt; Vdrive(min)</t>
-  </si>
-  <si>
     <t>When the driver transistor is on, gate is brought low to ground, check that Vdrive(min) from the power supply is enough to enable.</t>
   </si>
   <si>
     <t>Q51_Id &gt; Imax</t>
   </si>
   <si>
-    <t>Ppullup</t>
-  </si>
-  <si>
     <t>Q53_Vcc &gt; Vdcc(max)</t>
   </si>
   <si>
-    <t>Q53_Io(max) &gt; Ipullup @DCC V(max)</t>
-  </si>
-  <si>
-    <t>Ipullup @DCC V(max)</t>
-  </si>
-  <si>
     <t>Q53_I(gate)</t>
   </si>
   <si>
@@ -1073,12 +1052,6 @@
     <t>Maximum voltage created by the BackEMF resistor-dividers.</t>
   </si>
   <si>
-    <t>Current flowing through the Pullup resistor.</t>
-  </si>
-  <si>
-    <t>Power dissipated by the Pullup resistor.</t>
-  </si>
-  <si>
     <t>Gate current into the BJT.</t>
   </si>
   <si>
@@ -1166,18 +1139,12 @@
     <t>Low Side Drive N-MOS</t>
   </si>
   <si>
-    <t>Hold up, value not critical.</t>
-  </si>
-  <si>
     <t>BEMF voltage divider resistors.</t>
   </si>
   <si>
     <t>Gate protection resistors.</t>
   </si>
   <si>
-    <t>The H-Bridge switches the power to the motor to control direction and speed.  It uses P-Channel MOSFETs for the high side, and N-Channel MOSFETs for the low side.  While the uC can drive the low side directly, it can't drive the high side to full off.  A pull up resistor and a BJT with built in biasing resistors are used to switch the gate from Vdrive to ground.  Using a BJT with built in biasing resistors saves additional resistors on the board.  BackEMF is measured via a voltage divider, but to make it bidirectional it uses 3 resistors.  One of R53-R54 will be high, and one grounded depending on the configuration of the H-Bridge.  Along with R57 they form a voltage divider which is then input to an ADC pin.</t>
-  </si>
-  <si>
     <t>Most software development can be done without having a motor connected.  However, when programming a board via DCC it is supposed to support "readback" where it pulses 60ma of load on the track to indicate acknowledgement.  So that the user does not have to connect a motor to develop when JP61 is closed a 100 Ohm resistor is put across the motor output.  This allows the board to generate the 60ma pulses, and for readback to function correctly.</t>
   </si>
   <si>
@@ -1248,6 +1215,93 @@
   </si>
   <si>
     <t>Maximum user supplied "super capacitor" supported, DNP.</t>
+  </si>
+  <si>
+    <t>Q51_Vdss &lt; -1 * Vdcc(max)</t>
+  </si>
+  <si>
+    <t>When Q51 is driven low, is Vgs within spec.</t>
+  </si>
+  <si>
+    <t>Q55_Vgs(th, max) &lt; µC V</t>
+  </si>
+  <si>
+    <t>Vgs</t>
+  </si>
+  <si>
+    <t>Q55_Vgs &gt; µC V</t>
+  </si>
+  <si>
+    <t>Q51_Vdivider(max)</t>
+  </si>
+  <si>
+    <t>Q51_Vdivider(min)</t>
+  </si>
+  <si>
+    <t>Hold up &amp; voltage divider top.</t>
+  </si>
+  <si>
+    <t>Voltage divider bottom.</t>
+  </si>
+  <si>
+    <t>Voltage when Q53 is on formed by the R51/Rxx voltage divider.</t>
+  </si>
+  <si>
+    <t>Idivider @DCC V(max)</t>
+  </si>
+  <si>
+    <t>Q53_Io(max) &gt; Idivider @DCC V(max)</t>
+  </si>
+  <si>
+    <t>When Q55 is driven high, is Vgs within spec.</t>
+  </si>
+  <si>
+    <t>Pdivider</t>
+  </si>
+  <si>
+    <t>Current flowing through the voltage divider resistor.</t>
+  </si>
+  <si>
+    <t>Power dissipated by the voltage divider resistors.</t>
+  </si>
+  <si>
+    <t>Pdivider &lt; 1/8W</t>
+  </si>
+  <si>
+    <t>R57-R58</t>
+  </si>
+  <si>
+    <t>R59</t>
+  </si>
+  <si>
+    <t>R59_R</t>
+  </si>
+  <si>
+    <t>Voltage difference applied to the gate @Vdcc(max).</t>
+  </si>
+  <si>
+    <t>Voltage difference applied to the gate @Vdcc(min).</t>
+  </si>
+  <si>
+    <t>Q51_Vgs(diff) @ Vdcc(max)</t>
+  </si>
+  <si>
+    <t>Q51_Vgs(diff) @ Vdcc(min)</t>
+  </si>
+  <si>
+    <t>Q51_Vgs &lt; -1 *Q51_Vgs(diff) @ Vdcc(max)</t>
+  </si>
+  <si>
+    <t>Q51_Vgs(th,max) &gt; Q51_Vgs(diff) @ Vdcc(min)</t>
+  </si>
+  <si>
+    <t>The H-Bridge switches the power to the motor to control direction and speed.  It uses P-Channel MOSFETs for the high side, and N-Channel MOSFETs for the low side.  On the low side the µC voltage is higher than Vgs, and so it can drive the N-Channel MOSFETs directly.</t>
+  </si>
+  <si>
+    <t>BackEMF is measured via a voltage divider, but to make it bidirectional it uses 3 resistors.  One of R57-R58 will be high and one grounded depending on the polarity of the H-Bridge.  Along with R59 they form a voltage divider which is then input to an ADC pin.</t>
+  </si>
+  <si>
+    <t>On the high side, the P-Channel is OFF when Q53/Q54 are off and the R51/R52 pullups keep the gate voltage the same as the source voltage (Vgs=0).  The P-Channel is on when the transitor is on which drops the gate voltage below the drain voltage.  The DCC voltage is also too high for the P-Channel Vgs so a voltage divider is built with R51+R53 and R52+R54.  A BJT Q53/Q54 with built in biasing resistors turn on when the uC pin is high, enabling the voltage divider to turn on the MOSFET.  Using a BJT with built in biasing resistors saves additional resistors on the board.</t>
   </si>
 </sst>
 </file>
@@ -1801,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146E8460-C63A-9942-B8D8-F92B208762A2}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1833,7 +1887,7 @@
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -1851,7 +1905,7 @@
     </row>
     <row r="7" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -1877,7 +1931,7 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -1891,21 +1945,21 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10">
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -1952,7 +2006,7 @@
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14">
         <v>0.06</v>
@@ -1961,7 +2015,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.15">
@@ -2017,7 +2071,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2036,7 +2090,7 @@
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -2054,7 +2108,7 @@
     </row>
     <row r="7" spans="1:5" ht="49" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -2078,7 +2132,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -2095,10 +2149,10 @@
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2107,15 +2161,15 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -2124,15 +2178,15 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2141,15 +2195,15 @@
         <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" t="s">
         <v>254</v>
-      </c>
-      <c r="B14" t="s">
-        <v>255</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -2169,7 +2223,7 @@
     </row>
     <row r="17" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>31</v>
@@ -2187,14 +2241,14 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" t="b">
         <f>Project!C14&gt;=C25</f>
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2203,14 +2257,14 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" t="b">
         <f>C24&lt;C11</f>
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -2219,7 +2273,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="10" t="b">
         <f>C26&lt;C13</f>
@@ -2227,7 +2281,7 @@
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2241,7 +2295,7 @@
     </row>
     <row r="23" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>41</v>
@@ -2271,7 +2325,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2280,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" s="16">
         <f>Project!C9/C14</f>
@@ -2290,7 +2344,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2299,7 +2353,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" s="18">
         <f>Project!C8*C24</f>
@@ -2309,7 +2363,7 @@
         <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2318,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27">
         <f>Project!C9*C25</f>
@@ -2328,7 +2382,7 @@
         <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -2337,7 +2391,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C28" s="16">
         <f>SQRT(C13*C14)</f>
@@ -2347,7 +2401,7 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2361,36 +2415,36 @@
     </row>
     <row r="31" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="E31" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C32">
         <v>2512</v>
       </c>
       <c r="D32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2404,7 +2458,7 @@
     </row>
     <row r="35" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -2416,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
@@ -2452,7 +2506,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2471,7 +2525,7 @@
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -2496,7 +2550,7 @@
     </row>
     <row r="7" spans="1:5" ht="58" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -2521,7 +2575,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -2538,10 +2592,10 @@
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="11">
         <v>40</v>
@@ -2550,32 +2604,32 @@
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C13" s="11">
         <v>25</v>
@@ -2584,15 +2638,15 @@
         <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B14" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C14" s="11">
         <v>0.6</v>
@@ -2601,15 +2655,15 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B15" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C15" s="11">
         <v>0.2</v>
@@ -2618,64 +2672,64 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E16" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="11">
         <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18" s="14">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B19" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C19" s="11">
         <v>50</v>
@@ -2684,32 +2738,32 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C20" s="14">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="C21" s="23">
         <v>4.7</v>
@@ -2718,15 +2772,15 @@
         <v>6</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="11">
         <v>60</v>
@@ -2735,15 +2789,15 @@
         <v>5</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="11">
         <v>2.8</v>
@@ -2752,12 +2806,12 @@
         <v>5</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>50</v>
@@ -2769,15 +2823,15 @@
         <v>5</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" s="11">
         <v>0.2</v>
@@ -2786,15 +2840,15 @@
         <v>7</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="11">
         <v>0.7</v>
@@ -2803,7 +2857,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -2823,7 +2877,7 @@
     </row>
     <row r="29" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>31</v>
@@ -2841,14 +2895,14 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C30" t="b">
         <f>C11&gt;Project!C8</f>
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -2857,14 +2911,14 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C31" t="b">
         <f>C22&gt;C42</f>
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -2873,14 +2927,14 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C32" t="b">
         <f>C23&lt;C44</f>
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2889,14 +2943,14 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C33" t="b">
         <f>C25&gt;Processor!C18</f>
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -2905,14 +2959,14 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C34" t="b">
         <f>C44-C26&gt;=Project!C11</f>
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2921,7 +2975,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C35" t="b">
         <f>C17&gt;C42</f>
@@ -2937,14 +2991,14 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C36" t="b">
         <f>C19&gt;C24</f>
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -2953,14 +3007,14 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C37" t="b">
         <f>C46&gt;Project!C10</f>
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2975,7 +3029,7 @@
     </row>
     <row r="40" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>41</v>
@@ -2995,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C41">
         <f>2*C14</f>
@@ -3005,7 +3059,7 @@
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3014,7 +3068,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C42">
         <f>Project!C8-C41</f>
@@ -3024,7 +3078,7 @@
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3033,7 +3087,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C43">
         <f>Project!C9-C41</f>
@@ -3043,7 +3097,7 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3052,7 +3106,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C44">
         <f>C43-C15</f>
@@ -3062,7 +3116,7 @@
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3071,17 +3125,17 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C45" s="12">
         <f>C18*(C43/0.01)*LN(1.111)</f>
         <v>5.0525045115596616E-4</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3090,17 +3144,17 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C46" s="12">
         <f>C18*(C43/Processor!C35)*LN(1.111)</f>
-        <v>9.5423586556853487E-5</v>
+        <v>9.4739780414525391E-5</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -3109,7 +3163,7 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C47" s="12">
         <f>C42/C13</f>
@@ -3119,7 +3173,7 @@
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3128,7 +3182,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C48" s="12">
         <f>C42/C21</f>
@@ -3138,7 +3192,7 @@
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3153,70 +3207,70 @@
     </row>
     <row r="51" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="E51" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B53" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C54" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3230,7 +3284,7 @@
     </row>
     <row r="57" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>14</v>
@@ -3264,7 +3318,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -3278,7 +3332,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3297,7 +3351,7 @@
     </row>
     <row r="4" spans="1:5" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -3315,7 +3369,7 @@
     </row>
     <row r="7" spans="1:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -3339,7 +3393,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -3356,44 +3410,44 @@
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="15">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C12" s="15">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="D12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" t="s">
         <v>207</v>
-      </c>
-      <c r="E12" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13">
         <v>40</v>
@@ -3402,15 +3456,15 @@
         <v>5</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B14" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C14">
         <v>0.2</v>
@@ -3419,15 +3473,15 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C15">
         <v>10000</v>
@@ -3436,12 +3490,12 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -3458,7 +3512,7 @@
     </row>
     <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
@@ -3475,7 +3529,7 @@
     </row>
     <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
@@ -3492,7 +3546,7 @@
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -3509,7 +3563,7 @@
     </row>
     <row r="20" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
@@ -3526,7 +3580,7 @@
     </row>
     <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -3544,7 +3598,7 @@
     </row>
     <row r="22" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
@@ -3562,7 +3616,7 @@
     </row>
     <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
@@ -3579,10 +3633,10 @@
     </row>
     <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24">
         <v>1.38E-2</v>
@@ -3591,7 +3645,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -3608,7 +3662,7 @@
     </row>
     <row r="27" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>31</v>
@@ -3658,14 +3712,14 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" t="b">
         <f>C17&gt;C35</f>
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3674,14 +3728,14 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C31" t="b">
         <f>C37&lt;1/8</f>
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3695,7 +3749,7 @@
     </row>
     <row r="34" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>10</v>
@@ -3713,17 +3767,17 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35" s="16">
-        <f>'Function Outputs'!C30+(2*'Motor Drive'!C51) + (2*'F0F-F0R'!C24)</f>
-        <v>5.2948172394980904E-2</v>
+        <f>'Function Outputs'!C30+(2*'Motor Drive'!C62) + (2*'F0F-F0R'!C24)</f>
+        <v>5.3330338000076444E-2</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3732,7 +3786,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C36" s="12">
         <f>Project!C11/C15</f>
@@ -3742,7 +3796,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3751,7 +3805,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C37" s="12">
         <f>Project!C11*C36</f>
@@ -3772,104 +3826,104 @@
     </row>
     <row r="40" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B45" t="s">
         <v>38</v>
       </c>
       <c r="C45" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" t="s">
+        <v>215</v>
+      </c>
+      <c r="E45" t="s">
         <v>219</v>
-      </c>
-      <c r="D45" t="s">
-        <v>216</v>
-      </c>
-      <c r="E45" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3883,7 +3937,7 @@
     </row>
     <row r="48" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>14</v>
@@ -3929,7 +3983,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3948,7 +4002,7 @@
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -3966,7 +4020,7 @@
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -3990,7 +4044,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -4007,10 +4061,10 @@
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C11" s="20">
         <v>10000</v>
@@ -4021,10 +4075,10 @@
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C12" s="20">
         <v>10000</v>
@@ -4035,7 +4089,7 @@
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -4047,15 +4101,15 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -4064,12 +4118,12 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -4081,12 +4135,12 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -4103,7 +4157,7 @@
     </row>
     <row r="17" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -4120,7 +4174,7 @@
     </row>
     <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -4137,7 +4191,7 @@
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -4166,7 +4220,7 @@
     </row>
     <row r="22" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>31</v>
@@ -4184,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C23" t="b">
         <f>C13&gt;Project!C11</f>
@@ -4198,7 +4252,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C24" t="b">
         <f>C15&lt;C33</f>
@@ -4212,7 +4266,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C25" t="b">
         <f>C15&lt;C34</f>
@@ -4225,7 +4279,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C26" t="b">
         <f>C14&gt;C33</f>
@@ -4238,7 +4292,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C27" t="b">
         <f>C14&gt;C34</f>
@@ -4251,14 +4305,14 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C28" t="b">
         <f>C35&lt;1/8</f>
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -4267,14 +4321,14 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C29" t="b">
         <f>C36&lt;1/8</f>
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -4288,7 +4342,7 @@
     </row>
     <row r="32" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>10</v>
@@ -4306,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C33">
         <f>(Project!C8*C11)/(C11+C12)</f>
@@ -4322,7 +4376,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C34" s="20">
         <f>(Project!C9*C11)/(C11+C12)</f>
@@ -4338,7 +4392,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C35" s="16">
         <f>C33^2/C11</f>
@@ -4348,7 +4402,7 @@
         <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -4357,7 +4411,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C36" s="16">
         <f>C33^2/C12</f>
@@ -4367,7 +4421,7 @@
         <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -4387,36 +4441,36 @@
     </row>
     <row r="40" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -4430,7 +4484,7 @@
     </row>
     <row r="44" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>14</v>
@@ -4444,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -4456,7 +4510,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
@@ -4476,10 +4530,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB1BA66-A2E4-5B45-9BD4-8D39D01F419A}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -4493,7 +4547,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4512,7 +4566,7 @@
     </row>
     <row r="4" spans="1:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -4528,155 +4582,139 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="65" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>349</v>
-      </c>
-      <c r="B11" t="s">
-        <v>350</v>
-      </c>
-      <c r="C11" s="12">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>264</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>-2.5</v>
+        <v>341</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>0.45</v>
+        <v>-60</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>393</v>
       </c>
       <c r="C15">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>-2.5</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" t="s">
-        <v>371</v>
-      </c>
     </row>
     <row r="17" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>1.3</v>
+        <v>0.45</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
         <v>77</v>
@@ -4684,720 +4722,737 @@
     </row>
     <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>1.8E-3</v>
+        <v>-2</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19">
-        <v>0.1</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C20">
-        <v>60</v>
+        <v>1.3</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>372</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C22">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>1.2</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>393</v>
       </c>
       <c r="C24">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="C25">
-        <v>10000</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>373</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s">
-        <v>273</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>3000</v>
+        <v>0.17</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>374</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s">
-        <v>274</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>390</v>
+        <v>1.2</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>375</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s">
-        <v>275</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>390</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29" t="s">
+        <v>271</v>
+      </c>
+      <c r="C29">
+        <v>10000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30" t="s">
+        <v>272</v>
+      </c>
+      <c r="C30">
+        <v>10000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C31">
+        <v>390</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>407</v>
+      </c>
+      <c r="B32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32">
+        <v>3000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>408</v>
+      </c>
+      <c r="B33" t="s">
+        <v>409</v>
+      </c>
+      <c r="C33">
+        <v>390</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>285</v>
-      </c>
-      <c r="C32" t="b">
-        <f>C12&gt;Project!C8</f>
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="36" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <f t="shared" ref="A33:A43" si="0">A32+1</f>
+    <row r="37" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>390</v>
+      </c>
+      <c r="C37" t="b">
+        <f>C14&lt;-1*Project!C8</f>
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <f t="shared" ref="A38:A50" si="0">A37+1</f>
         <v>2</v>
       </c>
-      <c r="B33" t="s">
-        <v>325</v>
-      </c>
-      <c r="C33" t="b">
-        <f>C13&gt;-1*'Power Supply'!C42</f>
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A34">
+      <c r="B38" t="s">
+        <v>415</v>
+      </c>
+      <c r="C38" t="b">
+        <f>C16&gt;-1*C57</f>
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B34" t="s">
-        <v>327</v>
-      </c>
-      <c r="C34" t="b">
-        <f>-1*C15&gt;Project!C13</f>
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="B39" t="s">
+        <v>414</v>
+      </c>
+      <c r="C39" t="b">
+        <f>C15&lt;-1*C56</f>
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <f>A39+1</f>
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>323</v>
+      </c>
+      <c r="C40" t="b">
+        <f>-1*C18&gt;Project!C13</f>
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>329</v>
-      </c>
-      <c r="C35" t="b">
-        <f>C16&gt;Project!C8</f>
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A36">
+    <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B36" t="s">
-        <v>330</v>
-      </c>
-      <c r="C36" t="b">
-        <f>C19&gt;C49</f>
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C37" t="b">
-        <f>C51&lt;Processor!C16</f>
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" t="b">
-        <f>C50&lt;(1/8)</f>
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>279</v>
-      </c>
-      <c r="C39" t="b">
-        <f>C20&gt;Project!C8</f>
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B40" t="s">
-        <v>280</v>
-      </c>
-      <c r="C40" t="b">
-        <f>C21&lt;Project!C11</f>
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="C41" t="b">
-        <f>C23&gt;Project!C13</f>
+        <f>C19&gt;Project!C8</f>
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>281</v>
+        <v>401</v>
       </c>
       <c r="C42" t="b">
-        <f>C48&lt;Processor!C16</f>
+        <f>C22&gt;C60</f>
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C43" t="b">
-        <f>C53&lt;Project!C11</f>
+        <f>C62&lt;Processor!C16</f>
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <f t="shared" si="0"/>
         <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>406</v>
+      </c>
+      <c r="C44" t="b">
+        <f>C61&lt;(1/8)</f>
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>278</v>
+      </c>
+      <c r="C45" t="b">
+        <f>C23&gt;Project!C8</f>
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>392</v>
+      </c>
+      <c r="C46" t="b">
+        <f>C25&lt;Project!C11</f>
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>283</v>
-      </c>
-      <c r="C47">
+        <v>394</v>
+      </c>
+      <c r="C47" t="b">
+        <f>C24&gt;Project!C11</f>
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>280</v>
+      </c>
+      <c r="C48" t="b">
+        <f>C27&gt;Project!C13</f>
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" t="b">
+        <f>C59&lt;Processor!C16</f>
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>332</v>
+      </c>
+      <c r="C50" t="b">
+        <f>C64&lt;Project!C11</f>
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>395</v>
+      </c>
+      <c r="C54">
+        <f>(Project!C8*C30)/(C29+C30)</f>
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <f t="shared" ref="A55:A64" si="1">A54+1</f>
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>396</v>
+      </c>
+      <c r="C55">
+        <f>(Project!C9*C30)/(C29+C30)</f>
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C56">
+        <f>Project!C8-C54</f>
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>413</v>
+      </c>
+      <c r="C57">
+        <f>Project!C9-C55</f>
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <f>A55+1</f>
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>281</v>
+      </c>
+      <c r="C58">
         <f>Project!C11/Processor!C16</f>
         <v>131.99999999999997</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E58" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <f t="shared" ref="A48:A53" si="1">A47+1</f>
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
-        <v>284</v>
-      </c>
-      <c r="C48" s="16">
-        <f>Project!C11/C27</f>
-        <v>8.4615384615384613E-3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B49" t="s">
-        <v>331</v>
-      </c>
-      <c r="C49" s="16">
-        <f>Project!C8/C25</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A50">
+    <row r="59" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A59">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B50" t="s">
-        <v>328</v>
-      </c>
-      <c r="C50" s="16">
-        <f>Project!C8^2/C25</f>
-        <v>0.09</v>
-      </c>
-      <c r="D50" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A51">
+      <c r="B59" t="s">
+        <v>282</v>
+      </c>
+      <c r="C59" s="16">
+        <f>Project!C11/C31</f>
+        <v>8.4615384615384613E-3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A60">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B51" t="s">
-        <v>332</v>
-      </c>
-      <c r="C51" s="12">
-        <f>Project!C11/(4700 + 47000)</f>
-        <v>6.382978723404255E-5</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="B60" t="s">
+        <v>400</v>
+      </c>
+      <c r="C60" s="16">
+        <f>Project!C8/(C29+C30)</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="D60" t="s">
         <v>7</v>
       </c>
-      <c r="E51" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A52">
+      <c r="E60" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A61">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B52" t="s">
-        <v>340</v>
-      </c>
-      <c r="C52" s="20">
-        <f>C26*C28/(C26+C28)</f>
-        <v>345.13274336283183</v>
-      </c>
-      <c r="D52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A53">
+      <c r="B61" t="s">
+        <v>403</v>
+      </c>
+      <c r="C61" s="16">
+        <f>Project!C8^2/C29</f>
+        <v>0.09</v>
+      </c>
+      <c r="D61" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A62">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B53" t="s">
-        <v>338</v>
-      </c>
-      <c r="C53" s="21">
-        <f>(Project!C8*C52)/(C26+C52)</f>
+      <c r="B62" t="s">
+        <v>325</v>
+      </c>
+      <c r="C62" s="12">
+        <f>Project!C11/(4700 + (47000*C30/(47000+C30)))</f>
+        <v>2.5491258978181322E-4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>333</v>
+      </c>
+      <c r="C63" s="20">
+        <f>C32*C33/(C32+C33)</f>
+        <v>345.13274336283183</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>331</v>
+      </c>
+      <c r="C64" s="21">
+        <f>(Project!C8*C63)/(C32+C63)</f>
         <v>3.0952380952380949</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D64" t="s">
         <v>5</v>
       </c>
-      <c r="E53" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>349</v>
-      </c>
-      <c r="B57" t="s">
-        <v>352</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D57" t="s">
-        <v>191</v>
-      </c>
-      <c r="E57" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>264</v>
-      </c>
-      <c r="B58" t="s">
-        <v>276</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>216</v>
-      </c>
-      <c r="E58" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>265</v>
-      </c>
-      <c r="B59" t="s">
-        <v>277</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>216</v>
-      </c>
-      <c r="E59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>263</v>
-      </c>
-      <c r="B60" t="s">
-        <v>278</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>216</v>
-      </c>
-      <c r="E60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>268</v>
-      </c>
-      <c r="B61" t="s">
-        <v>303</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D61" t="s">
-        <v>191</v>
-      </c>
-      <c r="E61" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>269</v>
-      </c>
-      <c r="B62" t="s">
-        <v>346</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D62" t="s">
-        <v>191</v>
-      </c>
-      <c r="E62" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>270</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D63" t="s">
-        <v>191</v>
-      </c>
-      <c r="E63" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>271</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D64" t="s">
-        <v>191</v>
-      </c>
       <c r="E64" t="s">
-        <v>235</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -5406,24 +5461,188 @@
     </row>
     <row r="67" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>340</v>
+      </c>
+      <c r="B68" t="s">
+        <v>343</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D68" t="s">
+        <v>190</v>
+      </c>
+      <c r="E68" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>263</v>
+      </c>
+      <c r="B69" t="s">
+        <v>275</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>215</v>
+      </c>
+      <c r="E69" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>264</v>
+      </c>
+      <c r="B70" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>215</v>
+      </c>
+      <c r="E70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" t="s">
+        <v>277</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>215</v>
+      </c>
+      <c r="E71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>267</v>
+      </c>
+      <c r="B72" t="s">
+        <v>300</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" t="s">
+        <v>190</v>
+      </c>
+      <c r="E72" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>268</v>
+      </c>
+      <c r="B73" t="s">
+        <v>337</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" t="s">
+        <v>190</v>
+      </c>
+      <c r="E73" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>269</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D74" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>270</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D75" t="s">
+        <v>190</v>
+      </c>
+      <c r="E75" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68">
+      <c r="C78" s="17"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5449,7 +5668,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5468,7 +5687,7 @@
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -5486,7 +5705,7 @@
     </row>
     <row r="7" spans="1:5" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -5510,7 +5729,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -5527,7 +5746,7 @@
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -5541,7 +5760,7 @@
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -5555,10 +5774,10 @@
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" t="s">
         <v>226</v>
-      </c>
-      <c r="B13" t="s">
-        <v>227</v>
       </c>
       <c r="C13">
         <v>390</v>
@@ -5583,7 +5802,7 @@
     </row>
     <row r="16" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>31</v>
@@ -5608,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -5616,14 +5835,14 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" t="b">
         <f>C24&gt;=0.001</f>
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -5637,7 +5856,7 @@
     </row>
     <row r="21" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>41</v>
@@ -5657,7 +5876,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22">
         <f>(Project!C11-C11)/C12</f>
@@ -5667,7 +5886,7 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -5676,7 +5895,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23">
         <f>(Project!C11-C11)/0.001</f>
@@ -5686,7 +5905,7 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -5738,36 +5957,36 @@
     </row>
     <row r="28" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -5781,7 +6000,7 @@
     </row>
     <row r="32" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>14</v>
@@ -5824,7 +6043,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5861,7 +6080,7 @@
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -5885,7 +6104,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -5902,7 +6121,7 @@
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -5916,7 +6135,7 @@
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -5930,7 +6149,7 @@
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -5947,7 +6166,7 @@
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -5964,7 +6183,7 @@
     </row>
     <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -5981,7 +6200,7 @@
     </row>
     <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -5998,10 +6217,10 @@
     </row>
     <row r="17" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" t="s">
         <v>231</v>
-      </c>
-      <c r="B17" t="s">
-        <v>232</v>
       </c>
       <c r="C17">
         <v>390</v>
@@ -6010,7 +6229,7 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -6029,7 +6248,7 @@
     </row>
     <row r="20" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>31</v>
@@ -6132,7 +6351,7 @@
     </row>
     <row r="28" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>41</v>
@@ -6174,7 +6393,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6188,36 +6407,36 @@
     </row>
     <row r="33" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="E33" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6231,7 +6450,7 @@
     </row>
     <row r="37" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -6243,7 +6462,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
@@ -6279,7 +6498,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6298,7 +6517,7 @@
     </row>
     <row r="4" spans="1:5" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -6316,7 +6535,7 @@
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -6340,7 +6559,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -6357,10 +6576,10 @@
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11">
         <v>2.9</v>
@@ -6371,10 +6590,10 @@
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12">
         <v>1.95</v>
@@ -6385,10 +6604,10 @@
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13">
         <v>1.95</v>
@@ -6399,7 +6618,7 @@
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -6413,7 +6632,7 @@
     </row>
     <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -6427,10 +6646,10 @@
     </row>
     <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C16">
         <v>3000</v>
@@ -6441,10 +6660,10 @@
     </row>
     <row r="17" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17">
         <v>1.95</v>
@@ -6455,10 +6674,10 @@
     </row>
     <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18">
         <v>1.95</v>
@@ -6469,7 +6688,7 @@
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -6483,7 +6702,7 @@
     </row>
     <row r="20" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -6497,10 +6716,10 @@
     </row>
     <row r="21" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" t="s">
         <v>242</v>
-      </c>
-      <c r="B21" t="s">
-        <v>243</v>
       </c>
       <c r="C21">
         <v>3000</v>
@@ -6525,7 +6744,7 @@
     </row>
     <row r="24" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>31</v>
@@ -6543,14 +6762,14 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" t="b">
         <f>C42&lt;C14</f>
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6559,14 +6778,14 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" t="b">
         <f>C43&gt;0.001</f>
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6575,14 +6794,14 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" t="b">
         <f>C44&lt;C14</f>
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6591,14 +6810,14 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" t="b">
         <f>C45&gt;0.001</f>
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6607,14 +6826,14 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" t="b">
         <f>C46&lt;C14</f>
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6623,14 +6842,14 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" t="b">
         <f>C47&gt;0.001</f>
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6639,7 +6858,7 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C31" t="b">
         <f>C48&lt;C15</f>
@@ -6652,7 +6871,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C32" t="b">
         <f>C49&lt;C20</f>
@@ -6670,7 +6889,7 @@
     </row>
     <row r="35" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>41</v>
@@ -6690,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36">
         <f>(Project!C8-C11)/C14</f>
@@ -6700,7 +6919,7 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6709,7 +6928,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C37">
         <f>(Project!C8-C12)/C14</f>
@@ -6719,7 +6938,7 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6728,7 +6947,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38">
         <f>(Project!C8-C13)/C14</f>
@@ -6738,7 +6957,7 @@
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6747,7 +6966,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39">
         <f>(Project!C9-C11)/0.001</f>
@@ -6757,7 +6976,7 @@
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6766,7 +6985,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40">
         <f>(Project!C9-C12)/0.001</f>
@@ -6776,7 +6995,7 @@
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6785,7 +7004,7 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41">
         <f>(Project!C9-C13)/0.001</f>
@@ -6795,7 +7014,7 @@
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6804,7 +7023,7 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" s="12">
         <f>(Project!C8-C11)/C16</f>
@@ -6814,7 +7033,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6823,7 +7042,7 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" s="12">
         <f>(Project!C9-C11)/C16</f>
@@ -6833,7 +7052,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6842,7 +7061,7 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" s="12">
         <f>(Project!C8-C12)/C21</f>
@@ -6852,7 +7071,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6861,7 +7080,7 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C45" s="12">
         <f>(Project!C9-C12)/C21</f>
@@ -6871,7 +7090,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6880,7 +7099,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46" s="12">
         <f>(Project!C8-C13)/C21</f>
@@ -6890,7 +7109,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6899,7 +7118,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" s="12">
         <f>(Project!C9-C13)/C21</f>
@@ -6909,7 +7128,7 @@
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6918,7 +7137,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C48" s="16">
         <f>C11*C42</f>
@@ -6928,7 +7147,7 @@
         <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6937,7 +7156,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C49" s="16">
         <f>C44*C17</f>
@@ -6947,7 +7166,7 @@
         <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6963,36 +7182,36 @@
     </row>
     <row r="52" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="E52" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" t="s">
         <v>251</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D53" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" t="s">
         <v>252</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D53" t="s">
-        <v>191</v>
-      </c>
-      <c r="E53" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7006,7 +7225,7 @@
     </row>
     <row r="56" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -7047,7 +7266,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7066,7 +7285,7 @@
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -7084,7 +7303,7 @@
     </row>
     <row r="7" spans="1:5" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -7108,7 +7327,7 @@
     </row>
     <row r="11" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -7117,10 +7336,10 @@
     </row>
     <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -7128,10 +7347,10 @@
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
@@ -7139,10 +7358,10 @@
     </row>
     <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -7150,10 +7369,10 @@
     </row>
     <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
@@ -7161,10 +7380,10 @@
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>

--- a/hardware/reference/Breadboard-1/CALCULATIONS.xlsx
+++ b/hardware/reference/Breadboard-1/CALCULATIONS.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bicknell/Documents/DCC Reference Implementation/main/DCC-Mobile-Decoder/hardware/reference/Breadboard-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C4DF94-D77F-BC48-B62F-0898B1BB646F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A230D4E-E8E9-AE41-A8A9-E567E1066D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="4660" windowWidth="26680" windowHeight="20320" activeTab="4" xr2:uid="{E2FDA5F7-4457-0342-8592-4B5131180552}"/>
+    <workbookView xWindow="16820" yWindow="5980" windowWidth="26680" windowHeight="20320" activeTab="5" xr2:uid="{E2FDA5F7-4457-0342-8592-4B5131180552}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
-    <sheet name="Power Supply" sheetId="22" r:id="rId2"/>
-    <sheet name="Processor" sheetId="3" r:id="rId3"/>
-    <sheet name="DCC Signal" sheetId="17" r:id="rId4"/>
-    <sheet name="Motor Drive" sheetId="11" r:id="rId5"/>
-    <sheet name="F0F-F0R" sheetId="8" r:id="rId6"/>
-    <sheet name="Function Outputs" sheetId="2" r:id="rId7"/>
-    <sheet name="Diag LEDs" sheetId="14" r:id="rId8"/>
-    <sheet name="External" sheetId="21" r:id="rId9"/>
-    <sheet name="Dummy Load" sheetId="16" r:id="rId10"/>
+    <sheet name="1x Power Supply" sheetId="22" r:id="rId2"/>
+    <sheet name="2x Processor" sheetId="3" r:id="rId3"/>
+    <sheet name="3x DCC Signal" sheetId="17" r:id="rId4"/>
+    <sheet name="4x Dummy Load" sheetId="16" r:id="rId5"/>
+    <sheet name="5x Motor Drive" sheetId="11" r:id="rId6"/>
+    <sheet name="6x F0F-F0R" sheetId="8" r:id="rId7"/>
+    <sheet name="7x Function Outputs" sheetId="2" r:id="rId8"/>
+    <sheet name="8x Diag LEDs" sheetId="14" r:id="rId9"/>
+    <sheet name="9x External" sheetId="21" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="423">
   <si>
     <t>Properties</t>
   </si>
@@ -806,9 +806,6 @@
     <t>Generic Passive</t>
   </si>
   <si>
-    <t>R91</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -1302,6 +1299,21 @@
   </si>
   <si>
     <t>On the high side, the P-Channel is OFF when Q53/Q54 are off and the R51/R52 pullups keep the gate voltage the same as the source voltage (Vgs=0).  The P-Channel is on when the transitor is on which drops the gate voltage below the drain voltage.  The DCC voltage is also too high for the P-Channel Vgs so a voltage divider is built with R51+R53 and R52+R54.  A BJT Q53/Q54 with built in biasing resistors turn on when the uC pin is high, enabling the voltage divider to turn on the MOSFET.  Using a BJT with built in biasing resistors saves additional resistors on the board.</t>
+  </si>
+  <si>
+    <t>C11_esr</t>
+  </si>
+  <si>
+    <t>Approximate ESR of the user supplied capacitor.</t>
+  </si>
+  <si>
+    <t>It is generally important to turn MOSFETs on and off as quickly as possible to avoid operating them in a high resistance partially on state.  Note that R51/R53 use 10k resistors which will grealy reduce the turn on and turn off speed of the high side P-Channel MOSFETs.  These high values are used to prevent a signficant current draw when Q53 is on connecting them to ground.  In this applicaiton it is acceptable for the P-Channel high side to switch slowly.  The software changes the P-Channel state only when direction is changed, and then leaves them fully on or fully off.  The PWM signal to modulate speed is applied only to the low side, N-Channel MOSFET which can fast switch.</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>It is often suggested to use a pull-down resistor on the N-Channel MOSFETs on the low side.  The primary concerns seem to be misconfiguration of the uC pin as an input which would leave the gate floating, and increasing the speed of discharge from the MOSFET.  It is true that PIC GPIO pins intiially are in an input state, and the gate will be floating.  Pins are set as outputs as the third major item (after interrupts and PMD) in the MCC generated files, and counting suggests that setting the pins is about the 11th-14th instructions.  Thus any float should be extremely brief.  Further, the high side P-Channel MOSFETS are pulled high via resistor, making them off.  Thus even if one of the N-Channel MOSFETs were to briefly turn on, no current would flow (e.g. no shoot-through).  Because of these mitigating factors, pull downs have been omitted and the totem output of the PIC is relied on to keep the gate from floating.</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1464,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1529,11 +1541,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1887,7 +1902,7 @@
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -2053,11 +2068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87A0958-3135-F544-8B71-492A9B7EAB74}">
-  <dimension ref="A1:E36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BA061F-2720-1C45-9213-88C4C1755886}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -2071,7 +2086,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>307</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2090,7 +2105,7 @@
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>124</v>
+        <v>318</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -2106,9 +2121,9 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="49" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -2121,366 +2136,88 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>253</v>
-      </c>
-      <c r="B11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>139</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+        <v>311</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>253</v>
-      </c>
-      <c r="B14" t="s">
-        <v>254</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" t="b">
-        <f>Project!C14&gt;=C25</f>
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <f>A18+1</f>
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" t="b">
-        <f>C24&lt;C11</f>
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <f>A19+1</f>
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="10" t="b">
-        <f>C26&lt;C13</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="16">
-        <f>Project!C8/C14</f>
-        <v>0.3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <f>A24+1</f>
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="16">
-        <f>Project!C9/C14</f>
-        <v>0.06</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <f>A25+1</f>
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="18">
-        <f>Project!C8*C24</f>
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <f>A26+1</f>
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27">
-        <f>Project!C9*C25</f>
-        <v>0.36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <f>A27+1</f>
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>260</v>
-      </c>
-      <c r="C28" s="16">
-        <f>SQRT(C13*C14)</f>
-        <v>14.142135623730951</v>
-      </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>253</v>
-      </c>
-      <c r="B32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C32">
-        <v>2512</v>
-      </c>
-      <c r="D32" t="s">
-        <v>215</v>
-      </c>
-      <c r="E32" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
+        <v>312</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B36:E36"/>
+  <mergeCells count="7">
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2489,10 +2226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E13171-C76C-5D49-8E93-767FBBFA7ED3}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -2525,7 +2262,7 @@
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -2550,7 +2287,7 @@
     </row>
     <row r="7" spans="1:5" ht="58" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -2592,7 +2329,7 @@
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>172</v>
@@ -2609,27 +2346,27 @@
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>378</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C13" s="11">
         <v>25</v>
@@ -2638,15 +2375,15 @@
         <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C14" s="11">
         <v>0.6</v>
@@ -2660,10 +2397,10 @@
     </row>
     <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" t="s">
         <v>350</v>
-      </c>
-      <c r="B15" t="s">
-        <v>351</v>
       </c>
       <c r="C15" s="11">
         <v>0.2</v>
@@ -2672,7 +2409,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2689,107 +2426,107 @@
         <v>206</v>
       </c>
       <c r="E16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>418</v>
       </c>
       <c r="C17" s="11">
-        <v>50</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>0.16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>178</v>
+      <c r="B18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="11">
+        <v>50</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>371</v>
-      </c>
-      <c r="B19" t="s">
-        <v>372</v>
-      </c>
-      <c r="C19" s="11">
-        <v>50</v>
+        <v>193</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>177</v>
+        <v>95</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>370</v>
+      </c>
+      <c r="B20" t="s">
         <v>371</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="C20" s="14">
-        <v>1.0000000000000001E-5</v>
+      <c r="C20" s="11">
+        <v>50</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>178</v>
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="C21" s="23">
-        <v>4.7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
+        <v>372</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>385</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>382</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="11">
-        <v>60</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>5</v>
+        <v>383</v>
+      </c>
+      <c r="C22" s="23">
+        <v>4.7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>149</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2797,16 +2534,16 @@
         <v>162</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C23" s="11">
-        <v>2.8</v>
+        <v>60</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2814,16 +2551,16 @@
         <v>162</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="C24" s="11">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2831,16 +2568,16 @@
         <v>162</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="C25" s="11">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2848,403 +2585,403 @@
         <v>162</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C27" s="11">
         <v>0.7</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="8"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="8"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>355</v>
-      </c>
-      <c r="C30" t="b">
-        <f>C11&gt;Project!C8</f>
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A31">
-        <f t="shared" ref="A31:A37" si="0">A30+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C31" t="b">
-        <f>C22&gt;C42</f>
+        <f>C11&gt;Project!C8</f>
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A32">
+        <f t="shared" ref="A32:A38" si="0">A31+1</f>
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>355</v>
+      </c>
+      <c r="C32" t="b">
+        <f>C23&gt;C43</f>
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B32" t="s">
-        <v>357</v>
-      </c>
-      <c r="C32" t="b">
-        <f>C23&lt;C44</f>
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="B33" t="s">
+        <v>356</v>
+      </c>
+      <c r="C33" t="b">
+        <f>C24&lt;C45</f>
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>165</v>
       </c>
-      <c r="C33" t="b">
-        <f>C25&gt;Processor!C18</f>
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A34">
+      <c r="C34" t="b">
+        <f>C26&gt;'2x Processor'!C18</f>
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B34" t="s">
-        <v>358</v>
-      </c>
-      <c r="C34" t="b">
-        <f>C44-C26&gt;=Project!C11</f>
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="B35" t="s">
+        <v>357</v>
+      </c>
+      <c r="C35" t="b">
+        <f>C45-C27&gt;=Project!C11</f>
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>374</v>
-      </c>
-      <c r="C35" t="b">
-        <f>C17&gt;C42</f>
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C36" t="b">
-        <f>C19&gt;C24</f>
+        <f>C18&gt;C43</f>
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A37">
         <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>374</v>
+      </c>
+      <c r="C37" t="b">
+        <f>C20&gt;C25</f>
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>187</v>
       </c>
-      <c r="C37" t="b">
-        <f>C46&gt;Project!C10</f>
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="C38" t="b">
+        <f>C47&gt;Project!C10</f>
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
         <v>153</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <f>2*C14</f>
         <v>1.2</v>
       </c>
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <f>A41+1</f>
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
-        <v>167</v>
-      </c>
-      <c r="C42">
-        <f>Project!C8-C41</f>
-        <v>28.8</v>
-      </c>
       <c r="D42" t="s">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A43">
         <f>A42+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C43">
-        <f>Project!C9-C41</f>
-        <v>4.8</v>
+        <f>Project!C8-C42</f>
+        <v>28.8</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A44">
         <f>A43+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>354</v>
+        <v>168</v>
       </c>
       <c r="C44">
-        <f>C43-C15</f>
-        <v>4.5999999999999996</v>
+        <f>Project!C9-C42</f>
+        <v>4.8</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A45">
-        <f>A43+1</f>
+        <f>A44+1</f>
         <v>4</v>
       </c>
       <c r="B45" t="s">
+        <v>353</v>
+      </c>
+      <c r="C45">
+        <f>C44-C15</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <f>A44+1</f>
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
         <v>181</v>
       </c>
-      <c r="C45" s="12">
-        <f>C18*(C43/0.01)*LN(1.111)</f>
+      <c r="C46" s="12">
+        <f>C19*(C44/0.01)*LN(1.111)</f>
         <v>5.0525045115596616E-4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>160</v>
-      </c>
-      <c r="E45" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <f>A45+1</f>
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46" s="12">
-        <f>C18*(C43/Processor!C35)*LN(1.111)</f>
-        <v>9.4739780414525391E-5</v>
       </c>
       <c r="D46" t="s">
         <v>160</v>
       </c>
       <c r="E46" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47">
         <f>A46+1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>382</v>
+        <v>180</v>
       </c>
       <c r="C47" s="12">
-        <f>C42/C13</f>
-        <v>1.1520000000000001</v>
+        <f>C19*(C44/'2x Processor'!C35)*LN(1.111)</f>
+        <v>9.4739780414525391E-5</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="E47" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48">
         <f>A47+1</f>
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C48" s="12">
+        <f>(C43/C13)-C17</f>
+        <v>0.9920000000000001</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <f>A48+1</f>
         <v>7</v>
       </c>
-      <c r="B48" t="s">
-        <v>386</v>
-      </c>
-      <c r="C48" s="12">
-        <f>C42/C21</f>
-        <v>6.1276595744680851</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="B49" t="s">
+        <v>385</v>
+      </c>
+      <c r="C49" s="12">
+        <f>C43/(C17+C22)</f>
+        <v>5.9259259259259256</v>
+      </c>
+      <c r="D49" t="s">
         <v>7</v>
       </c>
-      <c r="E48" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="E49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" t="s">
-        <v>343</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D52" t="s">
-        <v>190</v>
-      </c>
-      <c r="E52" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="B53" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>213</v>
@@ -3256,57 +2993,74 @@
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>350</v>
+        <v>193</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
-      </c>
-      <c r="C54" t="s">
-        <v>191</v>
+        <v>342</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="D54" t="s">
         <v>190</v>
       </c>
       <c r="E54" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>349</v>
+      </c>
+      <c r="B55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
+    <row r="58" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3369,7 +3123,7 @@
     </row>
     <row r="7" spans="1:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -3444,7 +3198,7 @@
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B13" t="s">
         <v>172</v>
@@ -3461,10 +3215,10 @@
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C14">
         <v>0.2</v>
@@ -3473,7 +3227,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3728,14 +3482,14 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C31" t="b">
         <f>C37&lt;1/8</f>
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3770,7 +3524,7 @@
         <v>159</v>
       </c>
       <c r="C35" s="16">
-        <f>'Function Outputs'!C30+(2*'Motor Drive'!C62) + (2*'F0F-F0R'!C24)</f>
+        <f>'7x Function Outputs'!C30+(2*'5x Motor Drive'!C64) + (2*'6x F0F-F0R'!C24)</f>
         <v>5.3330338000076444E-2</v>
       </c>
       <c r="D35" t="s">
@@ -3786,7 +3540,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C36" s="12">
         <f>Project!C11/C15</f>
@@ -3805,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C37" s="12">
         <f>Project!C11*C36</f>
@@ -3983,7 +3737,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4002,7 +3756,7 @@
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -4020,7 +3774,7 @@
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -4061,10 +3815,10 @@
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C11" s="20">
         <v>10000</v>
@@ -4075,10 +3829,10 @@
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C12" s="20">
         <v>10000</v>
@@ -4089,7 +3843,7 @@
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -4101,15 +3855,15 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -4118,12 +3872,12 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -4135,12 +3889,12 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -4157,7 +3911,7 @@
     </row>
     <row r="17" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -4174,7 +3928,7 @@
     </row>
     <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -4191,7 +3945,7 @@
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -4238,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C23" t="b">
         <f>C13&gt;Project!C11</f>
@@ -4252,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C24" t="b">
         <f>C15&lt;C33</f>
@@ -4266,7 +4020,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C25" t="b">
         <f>C15&lt;C34</f>
@@ -4279,7 +4033,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C26" t="b">
         <f>C14&gt;C33</f>
@@ -4292,7 +4046,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C27" t="b">
         <f>C14&gt;C34</f>
@@ -4305,14 +4059,14 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C28" t="b">
         <f>C35&lt;1/8</f>
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -4321,14 +4075,14 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C29" t="b">
         <f>C36&lt;1/8</f>
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -4360,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C33">
         <f>(Project!C8*C11)/(C11+C12)</f>
@@ -4376,7 +4130,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C34" s="20">
         <f>(Project!C9*C11)/(C11+C12)</f>
@@ -4392,7 +4146,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C35" s="16">
         <f>C33^2/C11</f>
@@ -4402,7 +4156,7 @@
         <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -4411,7 +4165,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C36" s="16">
         <f>C33^2/C12</f>
@@ -4421,7 +4175,7 @@
         <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -4461,7 +4215,7 @@
         <v>94</v>
       </c>
       <c r="B41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>213</v>
@@ -4498,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -4510,7 +4264,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
@@ -4529,11 +4283,446 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87A0958-3135-F544-8B71-492A9B7EAB74}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="49" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>421</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" t="b">
+        <f>Project!C14&gt;=C25</f>
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <f>A18+1</f>
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="b">
+        <f>C24&lt;C11</f>
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <f>A19+1</f>
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="10" t="b">
+        <f>C26&lt;C13</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="16">
+        <f>Project!C8/C14</f>
+        <v>0.3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <f>A24+1</f>
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="16">
+        <f>Project!C9/C14</f>
+        <v>0.06</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <f>A25+1</f>
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="18">
+        <f>Project!C8*C24</f>
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <f>A26+1</f>
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27">
+        <f>Project!C9*C25</f>
+        <v>0.36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <f>A27+1</f>
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="16">
+        <f>SQRT(C13*C14)</f>
+        <v>14.142135623730951</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>421</v>
+      </c>
+      <c r="B32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32">
+        <v>2512</v>
+      </c>
+      <c r="D32" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB1BA66-A2E4-5B45-9BD4-8D39D01F419A}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E9"/>
+      <selection activeCell="A11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -4547,7 +4736,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4566,7 +4755,7 @@
     </row>
     <row r="4" spans="1:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -4584,7 +4773,7 @@
     </row>
     <row r="7" spans="1:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -4593,382 +4782,366 @@
     </row>
     <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="71" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="10" spans="1:5" ht="92" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>340</v>
-      </c>
-      <c r="B13" t="s">
-        <v>341</v>
-      </c>
-      <c r="C13" s="12">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>-60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>339</v>
       </c>
       <c r="B15" t="s">
-        <v>393</v>
-      </c>
-      <c r="C15">
-        <v>-20</v>
+        <v>340</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>-2.5</v>
+        <v>-60</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
+      <c r="E16" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>392</v>
       </c>
       <c r="C17">
-        <v>0.45</v>
+        <v>-20</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>0.45</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>362</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>1.3</v>
+        <v>-2</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C21">
-        <v>1.8E-3</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="C23">
-        <v>60</v>
+        <v>1.8E-3</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>363</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
       </c>
+      <c r="E25" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>392</v>
       </c>
       <c r="C26">
-        <v>0.17</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>120</v>
+        <v>0.17</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s">
-        <v>271</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>10000</v>
+        <v>1.2</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>397</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s">
-        <v>272</v>
+        <v>17</v>
       </c>
       <c r="C30">
-        <v>10000</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>398</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C31">
-        <v>390</v>
+        <v>10000</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>407</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C32">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>408</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s">
-        <v>409</v>
+        <v>272</v>
       </c>
       <c r="C33">
         <v>390</v>
@@ -4980,551 +5153,551 @@
         <v>364</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="34" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>406</v>
+      </c>
+      <c r="B34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34">
+        <v>3000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>407</v>
+      </c>
+      <c r="B35" t="s">
+        <v>408</v>
+      </c>
+      <c r="C35">
+        <v>390</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>390</v>
-      </c>
-      <c r="C37" t="b">
-        <f>C14&lt;-1*Project!C8</f>
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="36" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <f t="shared" ref="A38:A50" si="0">A37+1</f>
+    <row r="39" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>389</v>
+      </c>
+      <c r="C39" t="b">
+        <f>C16&lt;-1*Project!C8</f>
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <f t="shared" ref="A40:A52" si="0">A39+1</f>
         <v>2</v>
       </c>
-      <c r="B38" t="s">
-        <v>415</v>
-      </c>
-      <c r="C38" t="b">
-        <f>C16&gt;-1*C57</f>
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>414</v>
       </c>
-      <c r="C39" t="b">
-        <f>C15&lt;-1*C56</f>
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <f>A39+1</f>
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
-        <v>323</v>
-      </c>
       <c r="C40" t="b">
-        <f>-1*C18&gt;Project!C13</f>
+        <f>C18&gt;-1*C59</f>
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A41">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>413</v>
+      </c>
+      <c r="C41" t="b">
+        <f>C17&lt;-1*C58</f>
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <f>A41+1</f>
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>322</v>
+      </c>
+      <c r="C42" t="b">
+        <f>-1*C20&gt;Project!C13</f>
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B41" t="s">
-        <v>324</v>
-      </c>
-      <c r="C41" t="b">
-        <f>C19&gt;Project!C8</f>
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A42">
+      <c r="B43" t="s">
+        <v>323</v>
+      </c>
+      <c r="C43" t="b">
+        <f>C21&gt;Project!C8</f>
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A44">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B42" t="s">
-        <v>401</v>
-      </c>
-      <c r="C42" t="b">
-        <f>C22&gt;C60</f>
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>326</v>
-      </c>
-      <c r="C43" t="b">
-        <f>C62&lt;Processor!C16</f>
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
       <c r="B44" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C44" t="b">
-        <f>C61&lt;(1/8)</f>
+        <f>C24&gt;C62</f>
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>80</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="C45" t="b">
-        <f>C23&gt;Project!C8</f>
+        <f>C64&lt;'2x Processor'!C16</f>
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="C46" t="b">
-        <f>C25&lt;Project!C11</f>
+        <f>C63&lt;(1/8)</f>
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>394</v>
+        <v>277</v>
       </c>
       <c r="C47" t="b">
-        <f>C24&gt;Project!C11</f>
+        <f>C25&gt;Project!C8</f>
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>402</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>280</v>
+        <v>391</v>
       </c>
       <c r="C48" t="b">
-        <f>C27&gt;Project!C13</f>
+        <f>C27&lt;Project!C11</f>
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>279</v>
+        <v>393</v>
       </c>
       <c r="C49" t="b">
-        <f>C59&lt;Processor!C16</f>
+        <f>C26&gt;Project!C11</f>
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A50">
         <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" t="b">
+        <f>C29&gt;Project!C13</f>
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>278</v>
+      </c>
+      <c r="C51" t="b">
+        <f>C61&lt;'2x Processor'!C16</f>
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B50" t="s">
-        <v>332</v>
-      </c>
-      <c r="C50" t="b">
-        <f>C64&lt;Project!C11</f>
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="B52" t="s">
+        <v>331</v>
+      </c>
+      <c r="C52" t="b">
+        <f>C66&lt;Project!C11</f>
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
-        <v>395</v>
-      </c>
-      <c r="C54">
-        <f>(Project!C8*C30)/(C29+C30)</f>
-        <v>15</v>
-      </c>
-      <c r="D54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <f t="shared" ref="A55:A64" si="1">A54+1</f>
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>396</v>
-      </c>
-      <c r="C55">
-        <f>(Project!C9*C30)/(C29+C30)</f>
-        <v>3</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>1</v>
+      </c>
       <c r="B56" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="C56">
-        <f>Project!C8-C54</f>
+        <f>(Project!C8*C32)/(C31+C32)</f>
         <v>15</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <f t="shared" ref="A57:A66" si="1">A56+1</f>
+        <v>2</v>
+      </c>
       <c r="B57" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="C57">
-        <f>Project!C9-C55</f>
+        <f>(Project!C9*C32)/(C31+C32)</f>
         <v>3</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
       </c>
       <c r="E57" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <f>A55+1</f>
+      <c r="C58">
+        <f>Project!C8-C56</f>
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>412</v>
+      </c>
+      <c r="C59">
+        <f>Project!C9-C57</f>
         <v>3</v>
       </c>
-      <c r="B58" t="s">
-        <v>281</v>
-      </c>
-      <c r="C58">
-        <f>Project!C11/Processor!C16</f>
-        <v>131.99999999999997</v>
-      </c>
-      <c r="D58" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B59" t="s">
-        <v>282</v>
-      </c>
-      <c r="C59" s="16">
-        <f>Project!C11/C31</f>
-        <v>8.4615384615384613E-3</v>
-      </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>410</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A60">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>A57+1</f>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>400</v>
-      </c>
-      <c r="C60" s="16">
-        <f>Project!C8/(C29+C30)</f>
-        <v>1.5E-3</v>
+        <v>280</v>
+      </c>
+      <c r="C60">
+        <f>Project!C11/'2x Processor'!C16</f>
+        <v>131.99999999999997</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>404</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A61">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>403</v>
+        <v>281</v>
       </c>
       <c r="C61" s="16">
-        <f>Project!C8^2/C29</f>
-        <v>0.09</v>
+        <f>Project!C11/C33</f>
+        <v>8.4615384615384613E-3</v>
       </c>
       <c r="D61" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>405</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A62">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>325</v>
-      </c>
-      <c r="C62" s="12">
-        <f>Project!C11/(4700 + (47000*C30/(47000+C30)))</f>
-        <v>2.5491258978181322E-4</v>
+        <v>399</v>
+      </c>
+      <c r="C62" s="16">
+        <f>Project!C8/(C31+C32)</f>
+        <v>1.5E-3</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>335</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A63">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>333</v>
-      </c>
-      <c r="C63" s="20">
-        <f>C32*C33/(C32+C33)</f>
-        <v>345.13274336283183</v>
+        <v>402</v>
+      </c>
+      <c r="C63" s="16">
+        <f>Project!C8^2/C31</f>
+        <v>0.09</v>
       </c>
       <c r="D63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A64">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>331</v>
-      </c>
-      <c r="C64" s="21">
-        <f>(Project!C8*C63)/(C32+C63)</f>
-        <v>3.0952380952380949</v>
+        <v>324</v>
+      </c>
+      <c r="C64" s="12">
+        <f>Project!C11/(4700 + (47000*C32/(47000+C32)))</f>
+        <v>2.5491258978181322E-4</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E64" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="65" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>332</v>
+      </c>
+      <c r="C65" s="20">
+        <f>C34*C35/(C34+C35)</f>
+        <v>345.13274336283183</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>330</v>
+      </c>
+      <c r="C66" s="21">
+        <f>(Project!C8*C65)/(C34+C65)</f>
+        <v>3.0952380952380949</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>340</v>
-      </c>
-      <c r="B68" t="s">
-        <v>343</v>
-      </c>
-      <c r="C68" s="13" t="s">
+    <row r="70" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>339</v>
+      </c>
+      <c r="B70" t="s">
+        <v>342</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D70" t="s">
         <v>190</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E70" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>263</v>
-      </c>
-      <c r="B69" t="s">
-        <v>275</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>215</v>
-      </c>
-      <c r="E69" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>264</v>
-      </c>
-      <c r="B70" t="s">
-        <v>276</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
-        <v>215</v>
-      </c>
-      <c r="E70" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -5532,7 +5705,7 @@
         <v>262</v>
       </c>
       <c r="B71" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -5541,49 +5714,49 @@
         <v>215</v>
       </c>
       <c r="E71" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B72" t="s">
-        <v>300</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>213</v>
+        <v>275</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="E72" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B73" t="s">
-        <v>337</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>213</v>
+        <v>276</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="E73" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>269</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>338</v>
+        <v>266</v>
+      </c>
+      <c r="B74" t="s">
+        <v>299</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>213</v>
@@ -5597,10 +5770,10 @@
     </row>
     <row r="75" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>270</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>339</v>
+        <v>267</v>
+      </c>
+      <c r="B75" t="s">
+        <v>336</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>213</v>
@@ -5612,44 +5785,80 @@
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="76" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>268</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>269</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" t="s">
+        <v>190</v>
+      </c>
+      <c r="E77" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79">
+      <c r="C80" s="17"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F53958-5D20-7541-93F3-30E9F3216582}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -6024,7 +6233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9DE15B-75F4-E24A-B8FB-8C553145EEA9}">
   <dimension ref="A1:E38"/>
   <sheetViews>
@@ -6317,7 +6526,7 @@
         <v>45</v>
       </c>
       <c r="C24" t="b">
-        <f>C29&lt;Processor!C16</f>
+        <f>C29&lt;'2x Processor'!C16</f>
         <v>1</v>
       </c>
       <c r="E24" t="s">
@@ -6333,7 +6542,7 @@
         <v>48</v>
       </c>
       <c r="C25" t="b">
-        <f>C30&lt;Processor!C17</f>
+        <f>C30&lt;'2x Processor'!C17</f>
         <v>1</v>
       </c>
       <c r="E25" t="s">
@@ -6461,12 +6670,12 @@
       <c r="A38">
         <v>1</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6479,7 +6688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFE3BBA-56E6-A849-90C8-B4D5DB8B21B1}">
   <dimension ref="A1:E57"/>
   <sheetViews>
@@ -7245,161 +7454,4 @@
   <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BA061F-2720-1C45-9213-88C4C1755886}">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="51" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>310</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>312</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>313</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>315</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-    </row>
-    <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>317</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-  </mergeCells>
-  <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/hardware/reference/Breadboard-1/CALCULATIONS.xlsx
+++ b/hardware/reference/Breadboard-1/CALCULATIONS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bicknell/Documents/DCC Reference Implementation/main/DCC-Mobile-Decoder/hardware/reference/Breadboard-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A230D4E-E8E9-AE41-A8A9-E567E1066D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61C2A38-DED8-C443-9ECC-75F25C67D660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16820" yWindow="5980" windowWidth="26680" windowHeight="20320" activeTab="5" xr2:uid="{E2FDA5F7-4457-0342-8592-4B5131180552}"/>
+    <workbookView xWindow="22320" yWindow="6800" windowWidth="26680" windowHeight="20320" xr2:uid="{E2FDA5F7-4457-0342-8592-4B5131180552}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="429">
   <si>
     <t>Properties</t>
   </si>
@@ -83,18 +83,12 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>The 2N7002 NPN MOSFET is a widely copied "logic level" MOSFET designed to be turned on and off by a digital circuit.  Typically Vdss is 60V, Vgs(th) is 2.5v, and Id is at least 100ma at maximum temperature mounted to normal FR4.  It is not unusual to find enhanced versions of this part with increased current capability.  Typically available in SOT-23, SOT-323, SOT-523, and DFN packages.</t>
-  </si>
-  <si>
     <t>Calculations</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Ciss(max)</t>
-  </si>
-  <si>
     <t>Vgs(th, max)</t>
   </si>
   <si>
@@ -272,24 +266,15 @@
     <t>Id &lt; Imax</t>
   </si>
   <si>
-    <t>Columbs</t>
-  </si>
-  <si>
     <t>DMN6140</t>
   </si>
   <si>
     <t>Max</t>
   </si>
   <si>
-    <t>Max @70C</t>
-  </si>
-  <si>
     <t>Maximum current across decoder.</t>
   </si>
   <si>
-    <t>1/8 Watt resistors sufficient.</t>
-  </si>
-  <si>
     <t>DTC143ZCA</t>
   </si>
   <si>
@@ -746,9 +731,6 @@
     <t>Max inrush, all 6 in unison.</t>
   </si>
   <si>
-    <t>Popular E6 value selected to be in range.</t>
-  </si>
-  <si>
     <t>Generic Passive Part</t>
   </si>
   <si>
@@ -839,9 +821,6 @@
     <t>Q53-Q54</t>
   </si>
   <si>
-    <t>SL2309</t>
-  </si>
-  <si>
     <t>Motor Drive</t>
   </si>
   <si>
@@ -854,9 +833,6 @@
     <t>R55-R56</t>
   </si>
   <si>
-    <t>R57</t>
-  </si>
-  <si>
     <t>R51_R</t>
   </si>
   <si>
@@ -869,9 +845,6 @@
     <t>R57_R</t>
   </si>
   <si>
-    <t xml:space="preserve">60V 1.6A P Channel </t>
-  </si>
-  <si>
     <t>50V 100ma NPN - Pre Biased 4.7K/47K</t>
   </si>
   <si>
@@ -893,9 +866,6 @@
     <t>Q55_Igate(max)</t>
   </si>
   <si>
-    <t>For the high side of the circuit, the SL2309 is a 60V 1.6A P-Channel MOSFET.  For low side of the circuit the DMN6140 is a 60V, 2.1A N-Channel MOSFET.  Both MOSFETs are designed for power switching applications.  The DTC143ZCA is a pre-biased (4.7K &amp; 47K) "digital transitor" which saves two resistors per transitor.</t>
-  </si>
-  <si>
     <t>DCC Signal</t>
   </si>
   <si>
@@ -917,9 +887,6 @@
     <t>Vgs @DCC V(min)</t>
   </si>
   <si>
-    <t>Q31_Vgs(th_max) &lt; Vgs @DCC V(max)</t>
-  </si>
-  <si>
     <t>Q31_Vgs(th_max) &lt; Vgs @DCC V(min)</t>
   </si>
   <si>
@@ -935,39 +902,12 @@
     <t>Maximum gate threshold voltage to turn on.</t>
   </si>
   <si>
-    <t>Q31)Vgs(max) &gt; Vgs @DCC V(max)</t>
-  </si>
-  <si>
-    <t>Q31)Vgs(max) &gt; Vgs @DCC V(min)</t>
-  </si>
-  <si>
     <t>The input pin on the µC MUST be set to input and MUST have the Weak Pull Up enabled.</t>
   </si>
   <si>
     <t>10K Ω 1% 1/8W</t>
   </si>
   <si>
-    <t>Check that 1/8W resistors are within limits.</t>
-  </si>
-  <si>
-    <t>Power flowing through the voltage divider resistor</t>
-  </si>
-  <si>
-    <t>R31_P @DCC V(max)</t>
-  </si>
-  <si>
-    <t>R32_P @DCC V(max)</t>
-  </si>
-  <si>
-    <t>R31_P &lt; 1/8W</t>
-  </si>
-  <si>
-    <t>The NMRA requires the decoder to handle a 7-27 volt input signal.  That DCC signal needs to be converted to 3.3V logic level for the µC.</t>
-  </si>
-  <si>
-    <t>R31 &amp; R32 form a voltage divider to lower the track voltage range to the Gate voltage range of a 2N7002 MOSFET.  The MOSFET connects an input pin to ground when on.  When off a weak pull up resistor inside the µC pulls the pin high.</t>
-  </si>
-  <si>
     <t>External Connectivity</t>
   </si>
   <si>
@@ -1055,15 +995,6 @@
     <t>Maximum voltage on the BackEMF measurement is within range of the ADC on the µC.</t>
   </si>
   <si>
-    <t>3.6K Ω 1% 1/8W</t>
-  </si>
-  <si>
-    <t>680 Ω 1% 1/8W</t>
-  </si>
-  <si>
-    <t>470 Ω 1% 1/8W</t>
-  </si>
-  <si>
     <t>C51-C52</t>
   </si>
   <si>
@@ -1082,9 +1013,6 @@
     <t>R21_I</t>
   </si>
   <si>
-    <t>R21_P &lt; 1/8W</t>
-  </si>
-  <si>
     <t>D21</t>
   </si>
   <si>
@@ -1262,9 +1190,6 @@
     <t>Power dissipated by the voltage divider resistors.</t>
   </si>
   <si>
-    <t>Pdivider &lt; 1/8W</t>
-  </si>
-  <si>
     <t>R57-R58</t>
   </si>
   <si>
@@ -1314,6 +1239,99 @@
   </si>
   <si>
     <t>It is often suggested to use a pull-down resistor on the N-Channel MOSFETs on the low side.  The primary concerns seem to be misconfiguration of the uC pin as an input which would leave the gate floating, and increasing the speed of discharge from the MOSFET.  It is true that PIC GPIO pins intiially are in an input state, and the gate will be floating.  Pins are set as outputs as the third major item (after interrupts and PMD) in the MCC generated files, and counting suggests that setting the pins is about the 11th-14th instructions.  Thus any float should be extremely brief.  Further, the high side P-Channel MOSFETS are pulled high via resistor, making them off.  Thus even if one of the N-Channel MOSFETs were to briefly turn on, no current would flow (e.g. no shoot-through).  Because of these mitigating factors, pull downs have been omitted and the totem output of the PIC is relied on to keep the gate from floating.</t>
+  </si>
+  <si>
+    <t>390 Ω 1% 1/8W</t>
+  </si>
+  <si>
+    <t>Popular E12/E24 value selected to be in range.</t>
+  </si>
+  <si>
+    <t>R21_P &lt; 1/16W</t>
+  </si>
+  <si>
+    <t>Pdivider &lt; 1/16W</t>
+  </si>
+  <si>
+    <t>Check that 1/16W resistors are within limits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The NMRA requires the decoder to handle a 7-27 volt input signal.  That DCC signal needs to be converted to 3.3V logic level for the µC.  The BSS138K NPN MOSFET is a widely copied "logic level" MOSFET designed to be turned on and off by a digital circuit.  Typically Vdss is 50V, Vgs(th,max) is 1.5v, and Id is at least 300ma.  It is not unusual to find work-a-likes with higher Vdss and/or higher Id.  The K suffix indicates that the part has an ESD protected gate.  Since these boards may be handled by end users going to locomotives this is important to reduce the chance of a MOSFET being damaged by static during handling.				</t>
+  </si>
+  <si>
+    <t>R61_Pd</t>
+  </si>
+  <si>
+    <t>R61_Pd &lt; 1/16W</t>
+  </si>
+  <si>
+    <t>5 Ω 1% 1/8W</t>
+  </si>
+  <si>
+    <t>390 Ω 1% 1/8W</t>
+  </si>
+  <si>
+    <t>3K Ω 1% 1/8W</t>
+  </si>
+  <si>
+    <t>BSS133K</t>
+  </si>
+  <si>
+    <t>The BSS138K NPN MOSFET is a widely copied "logic level" MOSFET designed to be turned on and off by a digital circuit.  Typically Vdss is 50V, Vgs(th,max) is 1.5v, and Id is at least 200ma.  It is not unusual to find work-a-likes with higher Vdss and/or higher Id.  The K suffix indicates that the part has an ESD protected gate.  Since these boards may be handled by end users going to locomotives this is important to reduce the chance of a MOSFET being damaged by static during handling.</t>
+  </si>
+  <si>
+    <t>PMV250EPEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40V 1.5A P Channel </t>
+  </si>
+  <si>
+    <t>For the high side of the circuit, the PMV250EPEA is a 40V 1.5A P-Channel MOSFET with integrated ESD protection.  ESD protection is necessary as the decoders will be handled by people installing them in locomotives.</t>
+  </si>
+  <si>
+    <t>The DTC143ZCA is a pre-biased (4.7K &amp; 47K) "digital transitor" which saves two resistors per transitor.</t>
+  </si>
+  <si>
+    <t>For low side of the circuit the PMV55ENEAR is a 60V, 3.1A N-Channel MOSFET with integrated ESD protection.</t>
+  </si>
+  <si>
+    <t>Each side of the DCC signal is 1/2 the overall voltage.  The MOSFET gate is connected to the DCC input signal and pulled down to ground by a 10K resistor (R32).  The pulldown prevents the gate from floating which can damage the MOSFET, but is otherwise not needed in normal operation.  A gate resistor (R31) is also included to reduce ringing against the DCC signal.  The MOSFET expects the Drain to be pulled up which is accomplished by using the Weak Pull Up in the µC to avoid additional components.  Note that it does not matter which rail is used to feed this circuit, RAIL_L or RAIL_R can be picked to make trace routing more convenient.</t>
+  </si>
+  <si>
+    <t>R_P @DCC V(max)</t>
+  </si>
+  <si>
+    <t>Power flowing through the voltage divider resistors.</t>
+  </si>
+  <si>
+    <t>R_P &lt; 1/16W</t>
+  </si>
+  <si>
+    <t>DCC V(max) / 2 (one rail) after voltage divider R31/R32</t>
+  </si>
+  <si>
+    <t>DCC V(min) / 2 (one rail) after voltage divider R31/R32</t>
+  </si>
+  <si>
+    <t>Will fully turn on at min voltage.</t>
+  </si>
+  <si>
+    <t>Can handle the voltage we're operating at.</t>
+  </si>
+  <si>
+    <t>Gate max voltage is above project max voltage.</t>
+  </si>
+  <si>
+    <t>Q31_Vgs(max) &gt; Vgs @DCC V(max)</t>
+  </si>
+  <si>
+    <t>Effective bottom resistance of the BackEMF voltage divider.</t>
+  </si>
+  <si>
+    <t>Pbackemf_divider</t>
+  </si>
+  <si>
+    <t>Pbackemf_divider &lt; 1/16W</t>
   </si>
 </sst>
 </file>
@@ -1544,11 +1562,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1870,7 +1888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146E8460-C63A-9942-B8D8-F92B208762A2}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1883,7 +1901,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1902,7 +1920,7 @@
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -1920,7 +1938,7 @@
     </row>
     <row r="7" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -1932,12 +1950,12 @@
         <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -1946,12 +1964,12 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -1960,26 +1978,26 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C10">
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>3.3</v>
@@ -1988,12 +2006,12 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>0.1</v>
@@ -2002,12 +2020,12 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2016,12 +2034,12 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C14">
         <v>0.06</v>
@@ -2030,7 +2048,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.15">
@@ -2086,7 +2104,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2105,7 +2123,7 @@
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -2114,7 +2132,7 @@
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2123,7 +2141,7 @@
     </row>
     <row r="7" spans="1:5" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -2138,7 +2156,7 @@
     </row>
     <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2147,7 +2165,7 @@
     </row>
     <row r="11" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -2156,10 +2174,10 @@
     </row>
     <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -2167,10 +2185,10 @@
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
@@ -2178,10 +2196,10 @@
     </row>
     <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -2189,10 +2207,10 @@
     </row>
     <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
@@ -2200,10 +2218,10 @@
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
@@ -2226,10 +2244,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E13171-C76C-5D49-8E93-767FBBFA7ED3}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -2243,7 +2261,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2262,7 +2280,7 @@
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -2278,7 +2296,7 @@
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="2"/>
@@ -2287,7 +2305,7 @@
     </row>
     <row r="7" spans="1:5" ht="58" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -2312,7 +2330,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -2324,15 +2342,15 @@
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C11" s="11">
         <v>40</v>
@@ -2341,32 +2359,32 @@
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C13" s="11">
         <v>25</v>
@@ -2375,15 +2393,15 @@
         <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B14" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="C14" s="11">
         <v>0.6</v>
@@ -2392,15 +2410,15 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B15" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="C15" s="11">
         <v>0.2</v>
@@ -2409,32 +2427,32 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E16" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="C17" s="11">
         <v>0.16</v>
@@ -2443,47 +2461,47 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C18" s="11">
         <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C19" s="14">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="B20" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="C20" s="11">
         <v>50</v>
@@ -2492,32 +2510,32 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C21" s="14">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="C22" s="23">
         <v>4.7</v>
@@ -2526,15 +2544,15 @@
         <v>6</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C23" s="11">
         <v>60</v>
@@ -2543,15 +2561,15 @@
         <v>5</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C24" s="11">
         <v>2.8</v>
@@ -2560,15 +2578,15 @@
         <v>5</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="11">
         <v>3.3</v>
@@ -2577,15 +2595,15 @@
         <v>5</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C26" s="11">
         <v>0.2</v>
@@ -2594,15 +2612,15 @@
         <v>7</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C27" s="11">
         <v>0.7</v>
@@ -2611,7 +2629,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -2622,7 +2640,7 @@
     </row>
     <row r="29" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2631,13 +2649,13 @@
     </row>
     <row r="30" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
@@ -2649,14 +2667,14 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="C31" t="b">
         <f>C11&gt;Project!C8</f>
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -2665,14 +2683,14 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C32" t="b">
         <f>C23&gt;C43</f>
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -2681,14 +2699,14 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="C33" t="b">
         <f>C24&lt;C45</f>
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2697,14 +2715,14 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C34" t="b">
         <f>C26&gt;'2x Processor'!C18</f>
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -2713,14 +2731,14 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="C35" t="b">
         <f>C45-C27&gt;=Project!C11</f>
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2729,14 +2747,14 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="C36" t="b">
         <f>C18&gt;C43</f>
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2745,14 +2763,14 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="C37" t="b">
         <f>C20&gt;C25</f>
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -2761,20 +2779,20 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C38" t="b">
         <f>C47&gt;Project!C10</f>
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2783,13 +2801,13 @@
     </row>
     <row r="41" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>11</v>
@@ -2803,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C42">
         <f>2*C14</f>
@@ -2813,7 +2831,7 @@
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2822,7 +2840,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C43">
         <f>Project!C8-C42</f>
@@ -2832,7 +2850,7 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2841,7 +2859,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C44">
         <f>Project!C9-C42</f>
@@ -2851,7 +2869,7 @@
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2860,7 +2878,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="C45">
         <f>C44-C15</f>
@@ -2870,7 +2888,7 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2879,17 +2897,17 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C46" s="12">
         <f>C19*(C44/0.01)*LN(1.111)</f>
         <v>5.0525045115596616E-4</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E46" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2898,17 +2916,17 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C47" s="12">
         <f>C19*(C44/'2x Processor'!C35)*LN(1.111)</f>
         <v>9.4739780414525391E-5</v>
       </c>
       <c r="D47" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -2917,7 +2935,7 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="C48" s="12">
         <f>(C43/C13)-C17</f>
@@ -2927,7 +2945,7 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2936,7 +2954,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="C49" s="12">
         <f>C43/(C17+C22)</f>
@@ -2946,13 +2964,13 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2961,106 +2979,123 @@
     </row>
     <row r="52" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B53" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E53" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B54" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D54" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E54" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B55" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D55" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E55" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>358</v>
+      </c>
+      <c r="B56" t="s">
+        <v>406</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
+    <row r="59" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3086,7 +3121,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3105,7 +3140,7 @@
     </row>
     <row r="4" spans="1:5" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -3114,7 +3149,7 @@
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3123,7 +3158,7 @@
     </row>
     <row r="7" spans="1:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -3147,7 +3182,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -3159,49 +3194,49 @@
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C11" s="15">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" t="s">
         <v>204</v>
-      </c>
-      <c r="B12" t="s">
-        <v>209</v>
       </c>
       <c r="C12" s="15">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C13">
         <v>40</v>
@@ -3210,15 +3245,15 @@
         <v>5</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="C14">
         <v>0.2</v>
@@ -3227,15 +3262,15 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C15">
         <v>10000</v>
@@ -3244,15 +3279,15 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>2.5000000000000001E-2</v>
@@ -3261,15 +3296,15 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <v>7.0000000000000007E-2</v>
@@ -3278,15 +3313,15 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18">
         <v>0.19</v>
@@ -3295,15 +3330,15 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19">
         <v>1.8</v>
@@ -3312,15 +3347,15 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20">
         <v>5.5</v>
@@ -3329,15 +3364,15 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <f>0.15*Project!C14</f>
@@ -3347,15 +3382,15 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22">
         <f>0.25*Project!C14+0.8</f>
@@ -3365,15 +3400,15 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23">
         <v>0.3</v>
@@ -3382,15 +3417,15 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C24">
         <v>1.38E-2</v>
@@ -3399,7 +3434,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -3407,7 +3442,7 @@
     </row>
     <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3416,13 +3451,13 @@
     </row>
     <row r="27" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
@@ -3434,14 +3469,14 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" t="b">
         <f>C19&lt;Project!C11</f>
         <v>1</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3450,14 +3485,14 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" t="b">
         <f>C20&gt;Project!C11</f>
         <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3466,14 +3501,14 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C30" t="b">
         <f>C17&gt;C35</f>
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3482,19 +3517,19 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="C31" t="b">
-        <f>C37&lt;1/8</f>
+        <f>C37&lt;1/16</f>
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>300</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3503,13 +3538,13 @@
     </row>
     <row r="34" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
@@ -3521,17 +3556,17 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C35" s="16">
-        <f>'7x Function Outputs'!C30+(2*'5x Motor Drive'!C64) + (2*'6x F0F-F0R'!C24)</f>
+        <f>'7x Function Outputs'!C29+(2*'5x Motor Drive'!C67) + (2*'6x F0F-F0R'!C25)</f>
         <v>5.3330338000076444E-2</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3540,7 +3575,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="C36" s="12">
         <f>Project!C11/C15</f>
@@ -3550,7 +3585,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3559,19 +3594,19 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="C37" s="12">
         <f>Project!C11*C36</f>
         <v>1.0889999999999999E-3</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3580,109 +3615,109 @@
     </row>
     <row r="40" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D41" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E41" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D42" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E42" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D43" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E43" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D44" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E44" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D45" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E45" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3691,10 +3726,10 @@
     </row>
     <row r="48" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="4"/>
@@ -3720,10 +3755,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA78CBAA-309A-224B-8E23-8AE8F406AA5A}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -3737,7 +3772,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3754,9 +3789,9 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="56" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
-        <v>305</v>
+        <v>403</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -3765,16 +3800,16 @@
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="56" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -3798,7 +3833,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -3810,18 +3845,18 @@
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C11" s="20">
-        <v>10000</v>
+        <v>390</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -3829,10 +3864,10 @@
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B12" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C12" s="20">
         <v>10000</v>
@@ -3843,27 +3878,27 @@
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -3872,321 +3907,316 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17">
-        <v>0.115</v>
+        <v>0.31</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18">
-        <v>4.9999999999999998E-8</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>286</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>120</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" t="b">
+        <f>C13&gt;Project!C11</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>1</v>
+        <f>A22+1</f>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C23" t="b">
-        <f>C13&gt;Project!C11</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="5"/>
+        <f>C15&lt;C30</f>
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A24">
-        <f t="shared" ref="A24:A29" si="0">A23+1</f>
-        <v>2</v>
+        <f t="shared" ref="A24" si="0">A23+1</f>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>290</v>
+        <v>425</v>
       </c>
       <c r="C24" t="b">
-        <f>C15&lt;C33</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>C14&gt;C29</f>
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A25" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
       </c>
       <c r="B25" t="s">
-        <v>291</v>
+        <v>419</v>
       </c>
       <c r="C25" t="b">
-        <f>C15&lt;C34</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>296</v>
-      </c>
-      <c r="C26" t="b">
-        <f>C14&gt;C33</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>297</v>
-      </c>
-      <c r="C27" t="b">
-        <f>C14&gt;C34</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>304</v>
-      </c>
-      <c r="C28" t="b">
-        <f>C35&lt;1/8</f>
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>300</v>
+        <f>C31&lt;1/8</f>
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A29">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>304</v>
-      </c>
-      <c r="C29" t="b">
-        <f>C36&lt;1/8</f>
-        <v>1</v>
+        <v>278</v>
+      </c>
+      <c r="C29" s="18">
+        <f>((Project!C8/2) * C12)/(C11+C12)</f>
+        <v>14.436958614051973</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>288</v>
-      </c>
-      <c r="C33">
-        <f>(Project!C8*C11)/(C11+C12)</f>
-        <v>15</v>
-      </c>
-      <c r="D33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <f t="shared" ref="A30:A31" si="1">A29+1</f>
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="18">
+        <f>((Project!C9/2) * C12)/(C11+C12)</f>
+        <v>2.8873917228103947</v>
+      </c>
+      <c r="D30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <f t="shared" ref="A34:A36" si="1">A33+1</f>
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
-        <v>289</v>
-      </c>
-      <c r="C34" s="20">
-        <f>(Project!C9*C11)/(C11+C12)</f>
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A35">
+      <c r="E30" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A31">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B35" t="s">
-        <v>302</v>
-      </c>
-      <c r="C35" s="16">
-        <f>C33^2/C11</f>
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" t="s">
-        <v>301</v>
+      <c r="B31" t="s">
+        <v>417</v>
+      </c>
+      <c r="C31" s="16">
+        <f>C29^2/(C11+C12)</f>
+        <v>2.0060228491227086E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="A36" t="s">
+        <v>276</v>
       </c>
       <c r="B36" t="s">
-        <v>303</v>
-      </c>
-      <c r="C36" s="16">
-        <f>C33^2/C12</f>
-        <v>2.2499999999999999E-2</v>
+        <v>409</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="E36" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C37" s="16"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C38" s="16"/>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>286</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4195,87 +4225,44 @@
     </row>
     <row r="40" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" t="s">
-        <v>299</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D41" t="s">
-        <v>190</v>
-      </c>
-      <c r="E41" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-    </row>
-    <row r="46" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <f>A45+1</f>
+        <v>13</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+    </row>
+    <row r="42" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <f>A41+1</f>
         <v>2</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
+      <c r="B42" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4301,7 +4288,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4320,7 +4307,7 @@
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -4329,7 +4316,7 @@
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4338,7 +4325,7 @@
     </row>
     <row r="7" spans="1:5" ht="49" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -4362,7 +4349,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -4374,15 +4361,15 @@
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -4391,15 +4378,15 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4408,32 +4395,32 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="B14" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -4444,7 +4431,7 @@
     </row>
     <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4453,13 +4440,13 @@
     </row>
     <row r="17" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
@@ -4471,14 +4458,14 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C18" t="b">
         <f>Project!C14&gt;=C25</f>
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -4487,14 +4474,14 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C19" t="b">
         <f>C24&lt;C11</f>
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -4503,7 +4490,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C20" s="10" t="b">
         <f>C26&lt;C13</f>
@@ -4511,12 +4498,12 @@
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4525,13 +4512,13 @@
     </row>
     <row r="23" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>11</v>
@@ -4545,7 +4532,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="16">
         <f>Project!C8/C14</f>
@@ -4555,7 +4542,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -4564,7 +4551,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C25" s="16">
         <f>Project!C9/C14</f>
@@ -4574,7 +4561,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -4583,17 +4570,17 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C26" s="18">
         <f>Project!C8*C24</f>
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -4602,17 +4589,17 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C27">
         <f>Project!C9*C25</f>
         <v>0.36</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -4621,7 +4608,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C28" s="16">
         <f>SQRT(C13*C14)</f>
@@ -4631,12 +4618,12 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4645,41 +4632,41 @@
     </row>
     <row r="31" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="B32" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C32">
         <v>2512</v>
       </c>
       <c r="D32" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4688,7 +4675,7 @@
     </row>
     <row r="35" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -4700,7 +4687,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
@@ -4719,10 +4706,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB1BA66-A2E4-5B45-9BD4-8D39D01F419A}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E11"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -4736,7 +4723,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4753,429 +4740,410 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>282</v>
+        <v>413</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" ht="71" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
     </row>
-    <row r="10" spans="1:5" ht="92" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-    </row>
-    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" ht="71" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="12" spans="1:5" ht="92" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>339</v>
-      </c>
-      <c r="B15" t="s">
-        <v>340</v>
-      </c>
-      <c r="C15" s="12">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>262</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>-60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>360</v>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="B17" t="s">
-        <v>392</v>
-      </c>
-      <c r="C17">
-        <v>-20</v>
+        <v>317</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>-2.5</v>
+        <v>-40</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
+      <c r="E18" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>368</v>
       </c>
       <c r="C19">
-        <v>0.45</v>
+        <v>-20</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C20">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.24</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>361</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C23">
-        <v>1.8E-3</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C24">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C25">
-        <v>60</v>
+        <v>1.8E-3</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>362</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s">
-        <v>392</v>
+        <v>78</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
       </c>
+      <c r="E27" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>368</v>
       </c>
       <c r="C28">
-        <v>0.17</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30">
-        <v>120</v>
+        <v>3</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0.06</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>10000</v>
+        <v>3.1</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>396</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s">
-        <v>271</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>10000</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>397</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B33" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C33">
-        <v>390</v>
+        <v>10000</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>406</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C34">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>407</v>
+        <v>261</v>
       </c>
       <c r="B35" t="s">
-        <v>408</v>
+        <v>264</v>
       </c>
       <c r="C35">
         <v>390</v>
@@ -5184,674 +5152,762 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>381</v>
+      </c>
+      <c r="B36" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36">
+        <v>22000</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>382</v>
+      </c>
+      <c r="B37" t="s">
+        <v>383</v>
+      </c>
+      <c r="C37">
+        <v>3000</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="41" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>365</v>
+      </c>
+      <c r="C41" t="b">
+        <f>C18&lt;-1*Project!C8</f>
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <f t="shared" ref="A42:A55" si="0">A41+1</f>
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
         <v>389</v>
       </c>
-      <c r="C39" t="b">
-        <f>C16&lt;-1*Project!C8</f>
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="36" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <f t="shared" ref="A40:A52" si="0">A39+1</f>
-        <v>2</v>
-      </c>
-      <c r="B40" t="s">
-        <v>414</v>
-      </c>
-      <c r="C40" t="b">
-        <f>C18&gt;-1*C59</f>
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>413</v>
-      </c>
-      <c r="C41" t="b">
-        <f>C17&lt;-1*C58</f>
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <f>A41+1</f>
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>322</v>
-      </c>
       <c r="C42" t="b">
-        <f>-1*C20&gt;Project!C13</f>
+        <f>C20&gt;-1*C62</f>
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A43">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>388</v>
+      </c>
+      <c r="C43" t="b">
+        <f>C19&lt;-1*C61</f>
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <f>A43+1</f>
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>302</v>
+      </c>
+      <c r="C44" t="b">
+        <f>-1*C22&gt;Project!C13</f>
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B43" t="s">
-        <v>323</v>
-      </c>
-      <c r="C43" t="b">
-        <f>C21&gt;Project!C8</f>
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A44">
+      <c r="B45" t="s">
+        <v>303</v>
+      </c>
+      <c r="C45" t="b">
+        <f>C23&gt;Project!C8</f>
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A46">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B44" t="s">
-        <v>400</v>
-      </c>
-      <c r="C44" t="b">
-        <f>C24&gt;C62</f>
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B45" t="s">
-        <v>325</v>
-      </c>
-      <c r="C45" t="b">
-        <f>C64&lt;'2x Processor'!C16</f>
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
       <c r="B46" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="C46" t="b">
-        <f>C63&lt;(1/8)</f>
+        <f>C26&gt;C65</f>
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="C47" t="b">
-        <f>C25&gt;Project!C8</f>
+        <f>C67&lt;'2x Processor'!C16</f>
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C48" t="b">
-        <f>C27&lt;Project!C11</f>
+        <f>C66&lt;(1/16)</f>
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>393</v>
+        <v>268</v>
       </c>
       <c r="C49" t="b">
-        <f>C26&gt;Project!C11</f>
+        <f>C27&gt;Project!C8</f>
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>401</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>279</v>
+        <v>367</v>
       </c>
       <c r="C50" t="b">
-        <f>C29&gt;Project!C13</f>
+        <f>C29&lt;Project!C11</f>
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A51">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>278</v>
+        <v>369</v>
       </c>
       <c r="C51" t="b">
-        <f>C61&lt;'2x Processor'!C16</f>
+        <f>C28&gt;Project!C11</f>
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A52">
         <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C52" t="b">
+        <f>C31&gt;Project!C13</f>
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" t="b">
+        <f>C64&lt;'2x Processor'!C16</f>
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B52" t="s">
-        <v>331</v>
-      </c>
-      <c r="C52" t="b">
-        <f>C66&lt;Project!C11</f>
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="4" t="s">
+      <c r="B54" t="s">
+        <v>311</v>
+      </c>
+      <c r="C54" t="b">
+        <f>C69&lt;Project!C11</f>
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>428</v>
+      </c>
+      <c r="C55" t="b">
+        <f>C70&lt;1/16</f>
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>394</v>
-      </c>
-      <c r="C56">
-        <f>(Project!C8*C32)/(C31+C32)</f>
+    <row r="59" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>370</v>
+      </c>
+      <c r="C59">
+        <f>(Project!C8*C34)/(C33+C34)</f>
         <v>15</v>
-      </c>
-      <c r="D56" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <f t="shared" ref="A57:A66" si="1">A56+1</f>
-        <v>2</v>
-      </c>
-      <c r="B57" t="s">
-        <v>395</v>
-      </c>
-      <c r="C57">
-        <f>(Project!C9*C32)/(C31+C32)</f>
-        <v>3</v>
-      </c>
-      <c r="D57" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
-        <v>411</v>
-      </c>
-      <c r="C58">
-        <f>Project!C8-C56</f>
-        <v>15</v>
-      </c>
-      <c r="D58" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
-        <v>412</v>
-      </c>
-      <c r="C59">
-        <f>Project!C9-C57</f>
-        <v>3</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A60">
-        <f>A57+1</f>
+        <f t="shared" ref="A60:A70" si="1">A59+1</f>
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>371</v>
+      </c>
+      <c r="C60">
+        <f>(Project!C9*C34)/(C33+C34)</f>
         <v>3</v>
       </c>
-      <c r="B60" t="s">
-        <v>280</v>
-      </c>
-      <c r="C60">
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>386</v>
+      </c>
+      <c r="C61">
+        <f>Project!C8-C59</f>
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>387</v>
+      </c>
+      <c r="C62">
+        <f>Project!C9-C60</f>
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <f>A60+1</f>
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>271</v>
+      </c>
+      <c r="C63">
         <f>Project!C11/'2x Processor'!C16</f>
         <v>131.99999999999997</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D63" t="s">
         <v>6</v>
       </c>
-      <c r="E60" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B61" t="s">
-        <v>281</v>
-      </c>
-      <c r="C61" s="16">
-        <f>Project!C11/C33</f>
-        <v>8.4615384615384613E-3</v>
-      </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B62" t="s">
-        <v>399</v>
-      </c>
-      <c r="C62" s="16">
-        <f>Project!C8/(C31+C32)</f>
-        <v>1.5E-3</v>
-      </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B63" t="s">
-        <v>402</v>
-      </c>
-      <c r="C63" s="16">
-        <f>Project!C8^2/C31</f>
-        <v>0.09</v>
-      </c>
-      <c r="D63" t="s">
-        <v>62</v>
-      </c>
       <c r="E63" t="s">
-        <v>404</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A64">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>324</v>
-      </c>
-      <c r="C64" s="12">
-        <f>Project!C11/(4700 + (47000*C32/(47000+C32)))</f>
-        <v>2.5491258978181322E-4</v>
+        <v>272</v>
+      </c>
+      <c r="C64" s="16">
+        <f>Project!C11/C35</f>
+        <v>8.4615384615384613E-3</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>334</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A65">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>332</v>
-      </c>
-      <c r="C65" s="20">
-        <f>C34*C35/(C34+C35)</f>
-        <v>345.13274336283183</v>
+        <v>375</v>
+      </c>
+      <c r="C65" s="16">
+        <f>Project!C8/(C33+C34)</f>
+        <v>1.5E-3</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A66">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>378</v>
+      </c>
+      <c r="C66" s="16">
+        <f>Project!C8*C65</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>304</v>
+      </c>
+      <c r="C67" s="12">
+        <f>Project!C11/(4700 + (47000*C34/(47000+C34)))</f>
+        <v>2.5491258978181322E-4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>312</v>
+      </c>
+      <c r="C68" s="20">
+        <f>C36*C37/(C36+C37)</f>
+        <v>2640</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B66" t="s">
-        <v>330</v>
-      </c>
-      <c r="C66" s="21">
-        <f>(Project!C8*C65)/(C34+C65)</f>
-        <v>3.0952380952380949</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="B69" t="s">
+        <v>310</v>
+      </c>
+      <c r="C69" s="21">
+        <f>(Project!C8*C68)/(C36+C68)</f>
+        <v>3.2142857142857144</v>
+      </c>
+      <c r="D69" t="s">
         <v>5</v>
       </c>
-      <c r="E66" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>211</v>
+      <c r="E69" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>339</v>
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>342</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>213</v>
+        <v>427</v>
+      </c>
+      <c r="C70" s="16">
+        <f>Project!C8^2/(C68+C36)</f>
+        <v>3.6525974025974024E-2</v>
       </c>
       <c r="D70" t="s">
-        <v>190</v>
-      </c>
-      <c r="E70" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>262</v>
-      </c>
-      <c r="B71" t="s">
-        <v>274</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>215</v>
-      </c>
-      <c r="E71" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>263</v>
-      </c>
-      <c r="B72" t="s">
-        <v>275</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>215</v>
-      </c>
-      <c r="E72" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>261</v>
-      </c>
-      <c r="B73" t="s">
-        <v>276</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>215</v>
-      </c>
-      <c r="E73" t="s">
-        <v>76</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="B74" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D74" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E74" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B75" t="s">
-        <v>336</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>213</v>
+        <v>412</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="E75" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>268</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>213</v>
+        <v>257</v>
+      </c>
+      <c r="B76" t="s">
+        <v>266</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="E76" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>269</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>213</v>
+        <v>255</v>
+      </c>
+      <c r="B77" t="s">
+        <v>267</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="E77" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>259</v>
+      </c>
+      <c r="B78" t="s">
+        <v>286</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D78" t="s">
+        <v>185</v>
+      </c>
+      <c r="E78" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>260</v>
+      </c>
+      <c r="B79" t="s">
+        <v>286</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D79" t="s">
+        <v>185</v>
+      </c>
+      <c r="E79" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>261</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D80" t="s">
+        <v>185</v>
+      </c>
+      <c r="E80" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>381</v>
+      </c>
+      <c r="B81" t="s">
+        <v>408</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D81" t="s">
+        <v>185</v>
+      </c>
+      <c r="E81" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>382</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" t="s">
+        <v>185</v>
+      </c>
+      <c r="E82" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="17"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5860,10 +5916,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F53958-5D20-7541-93F3-30E9F3216582}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -5877,7 +5933,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5896,7 +5952,7 @@
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -5905,7 +5961,7 @@
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -5914,7 +5970,7 @@
     </row>
     <row r="7" spans="1:5" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -5938,7 +5994,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -5950,15 +6006,15 @@
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>2.9</v>
@@ -5969,10 +6025,10 @@
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>2.5000000000000001E-2</v>
@@ -5983,10 +6039,10 @@
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C13">
         <v>390</v>
@@ -6002,7 +6058,7 @@
     </row>
     <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6011,13 +6067,13 @@
     </row>
     <row r="16" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
@@ -6029,197 +6085,230 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" t="b">
-        <f>C24&lt;C12</f>
+        <f>C25&lt;C12</f>
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A18">
+        <f>A17+1</f>
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C18" t="b">
-        <f>C24&gt;=0.001</f>
+        <f>C25&gt;=0.001</f>
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <f>A18+1</f>
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>405</v>
+      </c>
+      <c r="C19" t="b">
+        <f>C27&lt;1/16</f>
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22">
+    <row r="23" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23">
         <f>(Project!C11-C11)/C12</f>
         <v>15.999999999999996</v>
       </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <f>A22+1</f>
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23">
-        <f>(Project!C11-C11)/0.001</f>
-        <v>399.99999999999989</v>
-      </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A24">
         <f>A23+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="12">
-        <f>(Project!C11-C11)/C13</f>
-        <v>1.0256410256410254E-3</v>
+        <v>83</v>
+      </c>
+      <c r="C24">
+        <f>(Project!C11-C11)/0.001</f>
+        <v>399.99999999999989</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A25">
         <f>A24+1</f>
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25">
-        <f>Project!C11*C24</f>
+      <c r="C25" s="12">
+        <f>(Project!C11-C11)/C13</f>
+        <v>1.0256410256410254E-3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <f>A25+1</f>
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="12">
+        <f>Project!C11*C25</f>
         <v>3.3846153846153839E-3</v>
       </c>
-      <c r="D25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>225</v>
-      </c>
-      <c r="B29" t="s">
-        <v>216</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D29" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33">
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <f>A26+1</f>
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>404</v>
+      </c>
+      <c r="C27" s="12">
+        <f>C25*Project!C11</f>
+        <v>3.3846153846153839E-3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" t="s">
+        <v>398</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35">
         <v>1</v>
       </c>
     </row>
@@ -6237,8 +6326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9DE15B-75F4-E24A-B8FB-8C553145EEA9}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -6252,7 +6341,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6271,7 +6360,7 @@
     </row>
     <row r="4" spans="1:5" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
-        <v>12</v>
+        <v>410</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -6280,7 +6369,7 @@
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -6289,7 +6378,7 @@
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -6313,7 +6402,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -6325,332 +6414,338 @@
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>0.115</v>
+        <v>0.2</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>4.9999999999999998E-8</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="C16">
-        <v>120</v>
+        <v>390</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C17">
-        <v>390</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="b">
+        <f>C11&gt;Project!C8</f>
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>31</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>1</v>
+        <f>A20+1</f>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C21" t="b">
-        <f>C11&gt;Project!C8</f>
+        <f>C12&lt;Project!C11</f>
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A22">
         <f>A21+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22" t="b">
-        <f>C12&lt;Project!C11</f>
+        <f>C14&gt;Project!C12</f>
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A23">
         <f>A22+1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C23" t="b">
-        <f>C14&gt;Project!C12</f>
+        <f>C28&lt;'2x Processor'!C16</f>
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A24">
         <f>A23+1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="b">
+        <f>C29&lt;'2x Processor'!C17</f>
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="16">
+        <f>Project!C11/C16</f>
+        <v>8.4615384615384613E-3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>45</v>
       </c>
-      <c r="C24" t="b">
-        <f>C29&lt;'2x Processor'!C16</f>
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <f>A24+1</f>
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" t="b">
-        <f>C30&lt;'2x Processor'!C17</f>
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
       <c r="C29" s="16">
-        <f>Project!C11/C17</f>
-        <v>8.4615384615384613E-3</v>
+        <f>C28*6</f>
+        <v>5.0769230769230768E-2</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="16">
-        <f>C29*6</f>
-        <v>5.0769230769230768E-2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>211</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>276</v>
+      </c>
+      <c r="B33" t="s">
+        <v>409</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>398</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D34" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E34" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -6659,7 +6754,7 @@
     </row>
     <row r="37" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -6670,12 +6765,12 @@
       <c r="A38">
         <v>1</v>
       </c>
-      <c r="B38" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="B38" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6707,7 +6802,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6726,7 +6821,7 @@
     </row>
     <row r="4" spans="1:5" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -6735,7 +6830,7 @@
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -6744,7 +6839,7 @@
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -6768,7 +6863,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -6780,15 +6875,15 @@
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C11">
         <v>2.9</v>
@@ -6799,10 +6894,10 @@
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C12">
         <v>1.95</v>
@@ -6813,10 +6908,10 @@
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C13">
         <v>1.95</v>
@@ -6827,10 +6922,10 @@
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14">
         <v>2.5000000000000001E-2</v>
@@ -6841,24 +6936,24 @@
     </row>
     <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="16">
         <v>0.08</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C16">
         <v>3000</v>
@@ -6869,10 +6964,10 @@
     </row>
     <row r="17" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C17">
         <v>1.95</v>
@@ -6883,10 +6978,10 @@
     </row>
     <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C18">
         <v>1.95</v>
@@ -6897,10 +6992,10 @@
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19">
         <v>2.5000000000000001E-2</v>
@@ -6911,24 +7006,24 @@
     </row>
     <row r="20" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20">
         <v>5.5E-2</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C21">
         <v>3000</v>
@@ -6944,7 +7039,7 @@
     </row>
     <row r="23" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -6953,13 +7048,13 @@
     </row>
     <row r="24" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
@@ -6971,14 +7066,14 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C25" t="b">
         <f>C42&lt;C14</f>
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6987,14 +7082,14 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C26" t="b">
         <f>C43&gt;0.001</f>
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7003,14 +7098,14 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C27" t="b">
         <f>C44&lt;C14</f>
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7019,14 +7114,14 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C28" t="b">
         <f>C45&gt;0.001</f>
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7035,14 +7130,14 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C29" t="b">
         <f>C46&lt;C14</f>
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7051,14 +7146,14 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C30" t="b">
         <f>C47&gt;0.001</f>
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7067,7 +7162,7 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C31" t="b">
         <f>C48&lt;C15</f>
@@ -7080,7 +7175,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C32" t="b">
         <f>C49&lt;C20</f>
@@ -7089,7 +7184,7 @@
     </row>
     <row r="34" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -7098,13 +7193,13 @@
     </row>
     <row r="35" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>11</v>
@@ -7118,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C36">
         <f>(Project!C8-C11)/C14</f>
@@ -7128,7 +7223,7 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7137,7 +7232,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C37">
         <f>(Project!C8-C12)/C14</f>
@@ -7147,7 +7242,7 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7156,7 +7251,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C38">
         <f>(Project!C8-C13)/C14</f>
@@ -7166,7 +7261,7 @@
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7175,7 +7270,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C39">
         <f>(Project!C9-C11)/0.001</f>
@@ -7185,7 +7280,7 @@
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7194,7 +7289,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C40">
         <f>(Project!C9-C12)/0.001</f>
@@ -7204,7 +7299,7 @@
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7213,7 +7308,7 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C41">
         <f>(Project!C9-C13)/0.001</f>
@@ -7223,7 +7318,7 @@
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7232,7 +7327,7 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C42" s="12">
         <f>(Project!C8-C11)/C16</f>
@@ -7242,7 +7337,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7251,7 +7346,7 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C43" s="12">
         <f>(Project!C9-C11)/C16</f>
@@ -7261,7 +7356,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7270,7 +7365,7 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C44" s="12">
         <f>(Project!C8-C12)/C21</f>
@@ -7280,7 +7375,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7289,7 +7384,7 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C45" s="12">
         <f>(Project!C9-C12)/C21</f>
@@ -7299,7 +7394,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7308,7 +7403,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C46" s="12">
         <f>(Project!C8-C13)/C21</f>
@@ -7318,7 +7413,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7327,7 +7422,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C47" s="12">
         <f>(Project!C9-C13)/C21</f>
@@ -7337,7 +7432,7 @@
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7346,17 +7441,17 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C48" s="16">
         <f>C11*C42</f>
         <v>2.6196666666666667E-2</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7365,25 +7460,25 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C49" s="16">
         <f>C44*C17</f>
         <v>1.8232500000000002E-2</v>
       </c>
       <c r="D49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -7391,41 +7486,41 @@
     </row>
     <row r="52" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B53" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E53" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -7434,7 +7529,7 @@
     </row>
     <row r="56" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>

--- a/hardware/reference/Breadboard-1/CALCULATIONS.xlsx
+++ b/hardware/reference/Breadboard-1/CALCULATIONS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bicknell/Documents/DCC Reference Implementation/main/DCC-Mobile-Decoder/hardware/reference/Breadboard-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61C2A38-DED8-C443-9ECC-75F25C67D660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C80E33C-5E72-3A41-9672-4B3BA3395B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="6800" windowWidth="26680" windowHeight="20320" xr2:uid="{E2FDA5F7-4457-0342-8592-4B5131180552}"/>
+    <workbookView xWindow="10420" yWindow="6100" windowWidth="26680" windowHeight="20320" xr2:uid="{E2FDA5F7-4457-0342-8592-4B5131180552}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="439">
   <si>
     <t>Properties</t>
   </si>
@@ -308,9 +308,6 @@
     <t>Current is within the LED limit.</t>
   </si>
   <si>
-    <t>R22</t>
-  </si>
-  <si>
     <t>R21</t>
   </si>
   <si>
@@ -680,12 +677,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>680 Ω 1% 1/8W</t>
-  </si>
-  <si>
-    <t>9.1K Ω 1% 1/8W</t>
-  </si>
-  <si>
     <t>SSOP-20</t>
   </si>
   <si>
@@ -1067,9 +1058,6 @@
     <t>BEMF voltage divider resistors.</t>
   </si>
   <si>
-    <t>Gate protection resistors.</t>
-  </si>
-  <si>
     <t>Most software development can be done without having a motor connected.  However, when programming a board via DCC it is supposed to support "readback" where it pulses 60ma of load on the track to indicate acknowledgement.  So that the user does not have to connect a motor to develop when JP61 is closed a 100 Ohm resistor is put across the motor output.  This allows the board to generate the 60ma pulses, and for readback to function correctly.</t>
   </si>
   <si>
@@ -1241,12 +1229,6 @@
     <t>It is often suggested to use a pull-down resistor on the N-Channel MOSFETs on the low side.  The primary concerns seem to be misconfiguration of the uC pin as an input which would leave the gate floating, and increasing the speed of discharge from the MOSFET.  It is true that PIC GPIO pins intiially are in an input state, and the gate will be floating.  Pins are set as outputs as the third major item (after interrupts and PMD) in the MCC generated files, and counting suggests that setting the pins is about the 11th-14th instructions.  Thus any float should be extremely brief.  Further, the high side P-Channel MOSFETS are pulled high via resistor, making them off.  Thus even if one of the N-Channel MOSFETs were to briefly turn on, no current would flow (e.g. no shoot-through).  Because of these mitigating factors, pull downs have been omitted and the totem output of the PIC is relied on to keep the gate from floating.</t>
   </si>
   <si>
-    <t>390 Ω 1% 1/8W</t>
-  </si>
-  <si>
-    <t>Popular E12/E24 value selected to be in range.</t>
-  </si>
-  <si>
     <t>R21_P &lt; 1/16W</t>
   </si>
   <si>
@@ -1268,9 +1250,6 @@
     <t>5 Ω 1% 1/8W</t>
   </si>
   <si>
-    <t>390 Ω 1% 1/8W</t>
-  </si>
-  <si>
     <t>3K Ω 1% 1/8W</t>
   </si>
   <si>
@@ -1286,15 +1265,9 @@
     <t xml:space="preserve">40V 1.5A P Channel </t>
   </si>
   <si>
-    <t>For the high side of the circuit, the PMV250EPEA is a 40V 1.5A P-Channel MOSFET with integrated ESD protection.  ESD protection is necessary as the decoders will be handled by people installing them in locomotives.</t>
-  </si>
-  <si>
     <t>The DTC143ZCA is a pre-biased (4.7K &amp; 47K) "digital transitor" which saves two resistors per transitor.</t>
   </si>
   <si>
-    <t>For low side of the circuit the PMV55ENEAR is a 60V, 3.1A N-Channel MOSFET with integrated ESD protection.</t>
-  </si>
-  <si>
     <t>Each side of the DCC signal is 1/2 the overall voltage.  The MOSFET gate is connected to the DCC input signal and pulled down to ground by a 10K resistor (R32).  The pulldown prevents the gate from floating which can damage the MOSFET, but is otherwise not needed in normal operation.  A gate resistor (R31) is also included to reduce ringing against the DCC signal.  The MOSFET expects the Drain to be pulled up which is accomplished by using the Weak Pull Up in the µC to avoid additional components.  Note that it does not matter which rail is used to feed this circuit, RAIL_L or RAIL_R can be picked to make trace routing more convenient.</t>
   </si>
   <si>
@@ -1307,12 +1280,6 @@
     <t>R_P &lt; 1/16W</t>
   </si>
   <si>
-    <t>DCC V(max) / 2 (one rail) after voltage divider R31/R32</t>
-  </si>
-  <si>
-    <t>DCC V(min) / 2 (one rail) after voltage divider R31/R32</t>
-  </si>
-  <si>
     <t>Will fully turn on at min voltage.</t>
   </si>
   <si>
@@ -1332,6 +1299,84 @@
   </si>
   <si>
     <t>Pbackemf_divider &lt; 1/16W</t>
+  </si>
+  <si>
+    <t>For the high side of the circuit, the TOSHIBA SSM3J356R,LF is a 60V 2A P-Channel MOSFET with integrated ESD protection.  ESD protection is necessary as the decoders will be handled by people installing them in locomotives.</t>
+  </si>
+  <si>
+    <t>For low side of the circuit the Nexperia PMV55ENEAR is a 60V, 3.1A N-Channel MOSFET with integrated ESD protection.</t>
+  </si>
+  <si>
+    <t>Component Notes</t>
+  </si>
+  <si>
+    <t>The DCC Signal and Function Outputs need a small signal N-Channel MOSFET.  
+The schematic does not indicate ESD protection on the MOSFET, but it is advisable on any decoder that will see repeated handling like this development board.
+Functionally any small signal MOSFET with a Vds &gt; 40V, Id &gt; 100ma, and a Vgs &lt; 3.5V are acceptable substututions, including the popular and widely copied 2N7000, 2N7002 and BSS138 parts.  Many of the clones have better specifications than the original versions.
+The ElecSuper BSS138K was chosen as an enhanced BSS138 copy with added ESD protection and high availability and low price at the time this was written.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Motor Drive requires higher current N &amp; P-Channel MOSFETs to form the H-Bridge.
+The schematic does not indicate ESD protection on the MOSFET, but it is advisable on any decoder that will see repeated handling like this development board.
+While the DCC voltage only goes to 27V and the project only requires 1A continuous current, it is advisable to greately over-specify the MOSFETs capabilities so that they operate at a cooler temperature.  It is recommended to use parts with Vds &gt; 60V, Id &gt; 2A.  Vgs for the P-Channel is not critical due to the drive method.  Vgs for the N-Channel must be below the voltage of the MicroController.
+The Toshiba SSM3J356R,LF was chosen for the P-Channel as it is one of very few P-Channel MOSFETs in this range to include ESD protection.  Popular options without ESD protection are the "2309" clones (NEC2309, SI2309, PJM2309, LP2309, etc) and they generally have Id ratings between 1.5A and 2.5A.
+The Nexperia PMV55ENEA was chosen for the N-Channel as it includes ESD protection.  There are several other choices with ESD protection such as the Toshiba SSM3K2615R, or Vishay SQ2364.  Popular options without ESD protection are the "2310" clones (CJ2310, AP2310, SL2310, MDD2310, HXY2310AI, SL2310) and they generally have Id ratings between 2A and 3.5A. </t>
+  </si>
+  <si>
+    <t>For all passive components 0805 (or equivilent) packages have been used.  All transistor and MOSFETs are SOT-23.  This is a balance of small size but also potential repairability as this is a development board and may be damaged in testing.  It should be possible to replace a component by hand without too much difficulty.</t>
+  </si>
+  <si>
+    <t>When chosing resistors care has been taken to stay with popular E6/E12/E24 values whenever possible, and to design the circuit so 1/16W resistors are of sufficient power handling.  This is to support shrinking the circuit to 0201 components which are not generally available in 1/8W variants.  While the design allows for 1/16W resistors, the specification is for 1/8W in all cases as they are more readily available in 0805 packages and provide an additional margin of safety.</t>
+  </si>
+  <si>
+    <t>3.3v Linear Regulator</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>SE8633X2-HF</t>
+  </si>
+  <si>
+    <t>The exact linear regulator in the Power Supply is not critical.  The SE8633X2-HF was chosen entirely based on availability and price.    To meet the specifications at the lowest voltages generally an LDO part is required.  Take care when swapping regulators to insure the pinout is the same, and the input and output capacitors are sufficient.</t>
+  </si>
+  <si>
+    <t>The White LEDs in the F0F/F0R and Diag LEDs sections are not critical.  The chosen parts were avaialble and low cost at the time of this writing.  Any White LED with a Vforward of ~2.9v should work fine.  Note that in a real decoder the selection of the F0F and F0R are likely to be important.  These LEDs will need to have a color and brightness appropriate to the locomotive, and may need alternate mounting styles such as an edge mount LED or a T1.5 package mounted off the end of the board.</t>
+  </si>
+  <si>
+    <t>10K Ω 1% 1/8W</t>
+  </si>
+  <si>
+    <t>DCC V(min) after voltage divider R31/R32</t>
+  </si>
+  <si>
+    <t>DCC V(max) after voltage divider R31/R32</t>
+  </si>
+  <si>
+    <t>Popular E6/E12/E24 value selected to be in range.</t>
+  </si>
+  <si>
+    <t>330 Ω 1% 1/8W</t>
+  </si>
+  <si>
+    <t>22K Ω 1% 1/8W</t>
+  </si>
+  <si>
+    <t>The preferred MicroController is the PIC18F16Q40T-I/SS.  This is a normal temperature part on cut tape.  It is also available as PIC18F16Q40-I/SS in tube packaging, and PIC18F16Q40-E/SS as an extended temperature part in tube packaging.  Any are acceptable.                               
+The closest substution is a PIC18F16Q41, available in the same three variants.  This model is identical except for the addition of an OpAmp which is not used.  Code should run on this device without being recompiled.
+There are many other PIC18F chips that could work.  The requirements are &gt;= 2 Timers, &gt;= 2 16-Bit PWM generators, &gt;= 1 CWG Waveform Generator, &gt;= 1 UART.  Additionally the timers and CWG must support mapping to the necessary pins, not all parts allow remaping to all pins.</t>
+  </si>
+  <si>
+    <t>Due to the expected repeated programming the MCLR hold up includes a diode
+to protect the circuit from repeated high programming voltages.</t>
+  </si>
+  <si>
+    <t>The following pins are left in their default locations:
+- PGD, PGC to ease programming connections.
+- RX, TX, to ease serial connections.
+- MCLR, Vdd, Gnd, cannot be moved.
+All other connections were placed to make routing the PCB traces
+simpler.</t>
   </si>
 </sst>
 </file>
@@ -1547,23 +1592,23 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1889,7 +1934,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1919,13 +1964,13 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1938,7 +1983,7 @@
     </row>
     <row r="7" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -1964,7 +2009,7 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -1978,21 +2023,21 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C10">
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2039,7 +2084,7 @@
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14">
         <v>0.06</v>
@@ -2048,37 +2093,95 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="C15" s="6"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="8"/>
+    <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5" ht="112" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="8">
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
     <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2104,7 +2207,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2122,13 +2225,13 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="A4" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2140,13 +2243,13 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="A7" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
@@ -2165,7 +2268,7 @@
     </row>
     <row r="11" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -2174,58 +2277,58 @@
     </row>
     <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>289</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+        <v>286</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+        <v>288</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>292</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+        <v>289</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>294</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+        <v>291</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+        <v>293</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2244,10 +2347,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E13171-C76C-5D49-8E93-767FBBFA7ED3}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="B55" sqref="B55:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -2261,7 +2364,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2279,13 +2382,13 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
@@ -2304,13 +2407,13 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="58" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="A7" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
@@ -2330,7 +2433,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -2347,10 +2450,10 @@
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="11">
         <v>40</v>
@@ -2359,32 +2462,32 @@
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C13" s="11">
         <v>25</v>
@@ -2393,15 +2496,15 @@
         <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C14" s="11">
         <v>0.6</v>
@@ -2410,15 +2513,15 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C15" s="11">
         <v>0.2</v>
@@ -2427,32 +2530,32 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E16" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C17" s="11">
         <v>0.16</v>
@@ -2461,47 +2564,47 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18" s="11">
         <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" s="14">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B20" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C20" s="11">
         <v>50</v>
@@ -2510,32 +2613,32 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C21" s="14">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C22" s="23">
         <v>4.7</v>
@@ -2544,15 +2647,15 @@
         <v>6</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" s="11">
         <v>60</v>
@@ -2561,15 +2664,15 @@
         <v>5</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C24" s="11">
         <v>2.8</v>
@@ -2578,12 +2681,12 @@
         <v>5</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>48</v>
@@ -2595,15 +2698,15 @@
         <v>5</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" s="11">
         <v>0.2</v>
@@ -2612,15 +2715,15 @@
         <v>7</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="11">
         <v>0.7</v>
@@ -2629,7 +2732,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -2649,7 +2752,7 @@
     </row>
     <row r="30" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>29</v>
@@ -2667,14 +2770,14 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C31" t="b">
         <f>C11&gt;Project!C8</f>
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -2683,14 +2786,14 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C32" t="b">
         <f>C23&gt;C43</f>
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -2699,14 +2802,14 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C33" t="b">
         <f>C24&lt;C45</f>
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2715,14 +2818,14 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" t="b">
         <f>C26&gt;'2x Processor'!C18</f>
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -2731,14 +2834,14 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C35" t="b">
         <f>C45-C27&gt;=Project!C11</f>
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2747,7 +2850,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C36" t="b">
         <f>C18&gt;C43</f>
@@ -2763,14 +2866,14 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C37" t="b">
         <f>C20&gt;C25</f>
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -2779,14 +2882,14 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C38" t="b">
         <f>C47&gt;Project!C10</f>
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2801,7 +2904,7 @@
     </row>
     <row r="41" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>39</v>
@@ -2821,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C42">
         <f>2*C14</f>
@@ -2831,7 +2934,7 @@
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2840,7 +2943,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C43">
         <f>Project!C8-C42</f>
@@ -2850,7 +2953,7 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2859,7 +2962,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44">
         <f>Project!C9-C42</f>
@@ -2869,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -2878,7 +2981,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C45">
         <f>C44-C15</f>
@@ -2888,7 +2991,7 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2897,17 +3000,17 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46" s="12">
         <f>C19*(C44/0.01)*LN(1.111)</f>
         <v>5.0525045115596616E-4</v>
       </c>
       <c r="D46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2916,17 +3019,17 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C47" s="12">
         <f>C19*(C44/'2x Processor'!C35)*LN(1.111)</f>
-        <v>9.4739780414525391E-5</v>
+        <v>8.0282503641225026E-5</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -2935,7 +3038,7 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C48" s="12">
         <f>(C43/C13)-C17</f>
@@ -2945,7 +3048,7 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2954,7 +3057,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C49" s="12">
         <f>C43/(C17+C22)</f>
@@ -2964,7 +3067,7 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2979,123 +3082,140 @@
     </row>
     <row r="52" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="E52" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E53" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B54" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E54" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B56" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E56" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="12" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" t="s">
+        <v>425</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>426</v>
+      </c>
+      <c r="E57" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
+    <row r="60" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3104,10 +3224,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13113005-C33F-734C-A841-38A3BF6EBFF8}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -3121,7 +3241,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3139,13 +3259,13 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3157,13 +3277,13 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="A7" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
@@ -3182,7 +3302,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -3199,44 +3319,44 @@
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="15">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12" s="15">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="D12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" t="s">
         <v>201</v>
-      </c>
-      <c r="E12" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13">
         <v>40</v>
@@ -3245,15 +3365,15 @@
         <v>5</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C14">
         <v>0.2</v>
@@ -3262,15 +3382,15 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15">
         <v>10000</v>
@@ -3279,12 +3399,12 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -3301,7 +3421,7 @@
     </row>
     <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -3318,7 +3438,7 @@
     </row>
     <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
@@ -3335,7 +3455,7 @@
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
@@ -3352,7 +3472,7 @@
     </row>
     <row r="20" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s">
         <v>66</v>
@@ -3369,7 +3489,7 @@
     </row>
     <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -3387,7 +3507,7 @@
     </row>
     <row r="22" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -3405,7 +3525,7 @@
     </row>
     <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
@@ -3422,10 +3542,10 @@
     </row>
     <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24">
         <v>1.38E-2</v>
@@ -3434,7 +3554,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -3451,7 +3571,7 @@
     </row>
     <row r="27" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>29</v>
@@ -3501,14 +3621,14 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" t="b">
         <f>C17&gt;C35</f>
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3517,14 +3637,14 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C31" t="b">
         <f>C37&lt;1/16</f>
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3538,7 +3658,7 @@
     </row>
     <row r="34" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>10</v>
@@ -3556,17 +3676,17 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C35" s="16">
         <f>'7x Function Outputs'!C29+(2*'5x Motor Drive'!C67) + (2*'6x F0F-F0R'!C25)</f>
-        <v>5.3330338000076444E-2</v>
+        <v>6.2934067603806043E-2</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3575,7 +3695,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C36" s="12">
         <f>Project!C11/C15</f>
@@ -3585,7 +3705,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3594,7 +3714,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C37" s="12">
         <f>Project!C11*C36</f>
@@ -3615,70 +3735,70 @@
     </row>
     <row r="40" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E41" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D42" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>319</v>
+      </c>
+      <c r="B43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" t="s">
         <v>185</v>
       </c>
-      <c r="E42" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" t="s">
-        <v>211</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>208</v>
-      </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E43" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -3686,33 +3806,33 @@
         <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>212</v>
+        <v>430</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E44" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B45" t="s">
         <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E45" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -3726,7 +3846,7 @@
     </row>
     <row r="48" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>13</v>
@@ -3735,15 +3855,42 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1</v>
       </c>
+      <c r="B49" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+    </row>
+    <row r="50" spans="1:5" ht="95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <f>A49+1</f>
+        <v>2</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="B51:E51"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1" display="Vdrop@1ma" xr:uid="{D586073C-8E2B-AB4D-96FB-6CED291460FF}"/>
@@ -3757,8 +3904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA78CBAA-309A-224B-8E23-8AE8F406AA5A}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -3772,7 +3919,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3790,13 +3937,13 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="56" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3808,13 +3955,13 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="56" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="A7" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
@@ -3833,7 +3980,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -3850,13 +3997,13 @@
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C11" s="20">
-        <v>390</v>
+        <v>10000</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -3864,10 +4011,10 @@
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C12" s="20">
         <v>10000</v>
@@ -3878,7 +4025,7 @@
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -3890,15 +4037,15 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -3907,12 +4054,12 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -3924,12 +4071,12 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -3946,7 +4093,7 @@
     </row>
     <row r="17" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -3963,7 +4110,7 @@
     </row>
     <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -3992,7 +4139,7 @@
     </row>
     <row r="21" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>29</v>
@@ -4010,14 +4157,14 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C22" t="b">
         <f>C13&gt;Project!C11</f>
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -4026,14 +4173,14 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C23" t="b">
         <f>C15&lt;C30</f>
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -4042,14 +4189,14 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C24" t="b">
         <f>C14&gt;C29</f>
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -4058,14 +4205,14 @@
         <v>#REF!</v>
       </c>
       <c r="B25" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C25" t="b">
         <f>C31&lt;1/8</f>
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -4079,7 +4226,7 @@
     </row>
     <row r="28" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>10</v>
@@ -4097,17 +4244,17 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C29" s="18">
-        <f>((Project!C8/2) * C12)/(C11+C12)</f>
-        <v>14.436958614051973</v>
+        <f>(Project!C8 * C12)/(C11+C12)</f>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -4116,17 +4263,17 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C30" s="18">
-        <f>((Project!C9/2) * C12)/(C11+C12)</f>
-        <v>2.8873917228103947</v>
+        <f>(Project!C9 * C12)/(C11+C12)</f>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -4135,17 +4282,17 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C31" s="16">
         <f>C29^2/(C11+C12)</f>
-        <v>2.0060228491227086E-2</v>
+        <v>1.125E-2</v>
       </c>
       <c r="D31" t="s">
         <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -4165,53 +4312,53 @@
     </row>
     <row r="35" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="E35" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -4225,7 +4372,7 @@
     </row>
     <row r="40" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>13</v>
@@ -4238,24 +4385,24 @@
       <c r="A41">
         <v>1</v>
       </c>
-      <c r="B41" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
+      <c r="B41" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
     </row>
     <row r="42" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42">
         <f>A41+1</f>
         <v>2</v>
       </c>
-      <c r="B42" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
+      <c r="B42" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4288,7 +4435,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4306,13 +4453,13 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="A4" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4324,13 +4471,13 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="49" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="A7" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
@@ -4349,7 +4496,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -4366,10 +4513,10 @@
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -4378,15 +4525,15 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4395,15 +4542,15 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -4412,15 +4559,15 @@
         <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -4440,7 +4587,7 @@
     </row>
     <row r="17" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -4458,14 +4605,14 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" t="b">
         <f>Project!C14&gt;=C25</f>
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -4474,7 +4621,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" t="b">
         <f>C24&lt;C11</f>
@@ -4490,7 +4637,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="10" t="b">
         <f>C26&lt;C13</f>
@@ -4498,7 +4645,7 @@
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -4512,7 +4659,7 @@
     </row>
     <row r="23" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>39</v>
@@ -4542,7 +4689,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -4551,7 +4698,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="16">
         <f>Project!C9/C14</f>
@@ -4561,7 +4708,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -4570,7 +4717,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" s="18">
         <f>Project!C8*C24</f>
@@ -4580,7 +4727,7 @@
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -4589,7 +4736,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27">
         <f>Project!C9*C25</f>
@@ -4599,7 +4746,7 @@
         <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -4608,7 +4755,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C28" s="16">
         <f>SQRT(C13*C14)</f>
@@ -4618,7 +4765,7 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -4632,36 +4779,36 @@
     </row>
     <row r="31" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="E31" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B32" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C32">
         <v>2512</v>
       </c>
       <c r="D32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E32" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -4675,7 +4822,7 @@
     </row>
     <row r="35" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -4686,12 +4833,12 @@
       <c r="A36">
         <v>1</v>
       </c>
-      <c r="B36" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
+      <c r="B36" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4708,8 +4855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB1BA66-A2E4-5B45-9BD4-8D39D01F419A}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A45" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -4723,7 +4870,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4741,31 +4888,31 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="A4" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="A5" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="A6" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -4777,49 +4924,49 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="A9" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="A10" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5" ht="71" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="A11" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" ht="92" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
-        <v>397</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="A12" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="A13" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
@@ -4838,7 +4985,7 @@
     </row>
     <row r="16" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>9</v>
@@ -4855,24 +5002,24 @@
     </row>
     <row r="17" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C17" s="12">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -4884,15 +5031,15 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B19" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C19">
         <v>-20</v>
@@ -4903,7 +5050,7 @@
     </row>
     <row r="20" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -4917,7 +5064,7 @@
     </row>
     <row r="21" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -4934,7 +5081,7 @@
     </row>
     <row r="22" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -4948,7 +5095,7 @@
     </row>
     <row r="23" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -4960,12 +5107,12 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s">
         <v>79</v>
@@ -4982,7 +5129,7 @@
     </row>
     <row r="25" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s">
         <v>80</v>
@@ -4999,7 +5146,7 @@
     </row>
     <row r="26" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s">
         <v>78</v>
@@ -5013,7 +5160,7 @@
     </row>
     <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -5025,15 +5172,15 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -5044,7 +5191,7 @@
     </row>
     <row r="29" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -5058,7 +5205,7 @@
     </row>
     <row r="30" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -5075,7 +5222,7 @@
     </row>
     <row r="31" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -5089,7 +5236,7 @@
     </row>
     <row r="32" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -5106,10 +5253,10 @@
     </row>
     <row r="33" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" t="s">
         <v>259</v>
-      </c>
-      <c r="B33" t="s">
-        <v>262</v>
       </c>
       <c r="C33">
         <v>10000</v>
@@ -5118,15 +5265,15 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>257</v>
+      </c>
+      <c r="B34" t="s">
         <v>260</v>
-      </c>
-      <c r="B34" t="s">
-        <v>263</v>
       </c>
       <c r="C34">
         <v>10000</v>
@@ -5135,32 +5282,32 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" t="s">
         <v>261</v>
       </c>
-      <c r="B35" t="s">
-        <v>264</v>
-      </c>
       <c r="C35">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>340</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B36" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C36">
         <v>22000</v>
@@ -5169,15 +5316,15 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B37" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C37">
         <v>3000</v>
@@ -5186,7 +5333,7 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -5200,7 +5347,7 @@
     </row>
     <row r="40" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>29</v>
@@ -5218,14 +5365,14 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C41" t="b">
         <f>C18&lt;-1*Project!C8</f>
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="36" x14ac:dyDescent="0.15">
@@ -5234,14 +5381,14 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C42" t="b">
         <f>C20&gt;-1*C62</f>
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -5250,14 +5397,14 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C43" t="b">
         <f>C19&lt;-1*C61</f>
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -5266,7 +5413,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C44" t="b">
         <f>-1*C22&gt;Project!C13</f>
@@ -5282,14 +5429,14 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C45" t="b">
         <f>C23&gt;Project!C8</f>
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -5298,14 +5445,14 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C46" t="b">
         <f>C26&gt;C65</f>
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -5314,14 +5461,14 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C47" t="b">
         <f>C67&lt;'2x Processor'!C16</f>
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -5330,14 +5477,14 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C48" t="b">
         <f>C66&lt;(1/16)</f>
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -5346,14 +5493,14 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C49" t="b">
         <f>C27&gt;Project!C8</f>
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -5362,7 +5509,7 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C50" t="b">
         <f>C29&lt;Project!C11</f>
@@ -5378,14 +5525,14 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C51" t="b">
         <f>C28&gt;Project!C11</f>
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -5394,7 +5541,7 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C52" t="b">
         <f>C31&gt;Project!C13</f>
@@ -5410,7 +5557,7 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C53" t="b">
         <f>C64&lt;'2x Processor'!C16</f>
@@ -5426,14 +5573,14 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C54" t="b">
         <f>C69&lt;Project!C11</f>
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -5442,14 +5589,14 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C55" t="b">
         <f>C70&lt;1/16</f>
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -5463,7 +5610,7 @@
     </row>
     <row r="58" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>39</v>
@@ -5483,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C59">
         <f>(Project!C8*C34)/(C33+C34)</f>
@@ -5493,7 +5640,7 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -5502,7 +5649,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C60">
         <f>(Project!C9*C34)/(C33+C34)</f>
@@ -5512,12 +5659,12 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C61">
         <f>Project!C8-C59</f>
@@ -5527,12 +5674,12 @@
         <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C62">
         <f>Project!C9-C60</f>
@@ -5542,7 +5689,7 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -5551,7 +5698,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C63">
         <f>Project!C11/'2x Processor'!C16</f>
@@ -5570,11 +5717,11 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C64" s="16">
         <f>Project!C11/C35</f>
-        <v>8.4615384615384613E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -5589,7 +5736,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C65" s="16">
         <f>Project!C8/(C33+C34)</f>
@@ -5599,7 +5746,7 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -5608,7 +5755,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C66" s="16">
         <f>Project!C8*C65</f>
@@ -5618,7 +5765,7 @@
         <v>60</v>
       </c>
       <c r="E66" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -5627,7 +5774,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C67" s="12">
         <f>Project!C11/(4700 + (47000*C34/(47000+C34)))</f>
@@ -5637,7 +5784,7 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -5646,7 +5793,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C68" s="20">
         <f>C36*C37/(C36+C37)</f>
@@ -5656,7 +5803,7 @@
         <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="24" x14ac:dyDescent="0.15">
@@ -5665,7 +5812,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C69" s="21">
         <f>(Project!C8*C68)/(C36+C68)</f>
@@ -5675,7 +5822,7 @@
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -5684,7 +5831,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C70" s="16">
         <f>Project!C8^2/(C68+C36)</f>
@@ -5705,67 +5852,67 @@
     </row>
     <row r="73" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="E73" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
+        <v>313</v>
+      </c>
+      <c r="B74" t="s">
         <v>316</v>
       </c>
-      <c r="B74" t="s">
-        <v>319</v>
-      </c>
       <c r="C74" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E74" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B75" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E75" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B76" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E76" t="s">
         <v>76</v>
@@ -5773,16 +5920,16 @@
     </row>
     <row r="77" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B77" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E77" t="s">
         <v>73</v>
@@ -5790,87 +5937,87 @@
     </row>
     <row r="78" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B78" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E78" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B79" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E79" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D80" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E80" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B81" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E81" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>382</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>407</v>
+        <v>378</v>
+      </c>
+      <c r="B82" t="s">
+        <v>401</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D82" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E82" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -5884,7 +6031,7 @@
     </row>
     <row r="85" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>13</v>
@@ -5919,7 +6066,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -5933,7 +6080,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5951,13 +6098,13 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="A4" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -5969,13 +6116,13 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="A7" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
@@ -5994,7 +6141,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -6011,7 +6158,7 @@
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -6025,7 +6172,7 @@
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -6039,16 +6186,19 @@
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C13">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -6067,7 +6217,7 @@
     </row>
     <row r="16" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>29</v>
@@ -6101,14 +6251,14 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" t="b">
         <f>C25&gt;=0.001</f>
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -6117,14 +6267,14 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C19" t="b">
         <f>C27&lt;1/16</f>
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6138,7 +6288,7 @@
     </row>
     <row r="22" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>39</v>
@@ -6200,7 +6350,7 @@
       </c>
       <c r="C25" s="12">
         <f>(Project!C11-C11)/C13</f>
-        <v>1.0256410256410254E-3</v>
+        <v>1.2121212121212119E-3</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -6219,7 +6369,7 @@
       </c>
       <c r="C26" s="12">
         <f>Project!C11*C25</f>
-        <v>3.3846153846153839E-3</v>
+        <v>3.9999999999999992E-3</v>
       </c>
       <c r="D26" t="s">
         <v>60</v>
@@ -6234,11 +6384,11 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C27" s="12">
         <f>C25*Project!C11</f>
-        <v>3.3846153846153839E-3</v>
+        <v>3.9999999999999992E-3</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
@@ -6255,36 +6405,36 @@
     </row>
     <row r="30" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>220</v>
-      </c>
-      <c r="B31" t="s">
-        <v>398</v>
+        <v>217</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6298,7 +6448,7 @@
     </row>
     <row r="34" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>13</v>
@@ -6327,7 +6477,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -6341,7 +6491,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6359,13 +6509,13 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -6377,13 +6527,13 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="A7" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
@@ -6402,7 +6552,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -6419,7 +6569,7 @@
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -6436,7 +6586,7 @@
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -6453,7 +6603,7 @@
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -6470,7 +6620,7 @@
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -6487,7 +6637,7 @@
     </row>
     <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -6504,19 +6654,19 @@
     </row>
     <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C16">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -6535,7 +6685,7 @@
     </row>
     <row r="19" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>29</v>
@@ -6638,7 +6788,7 @@
     </row>
     <row r="27" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -6659,7 +6809,7 @@
       </c>
       <c r="C28" s="16">
         <f>Project!C11/C16</f>
-        <v>8.4615384615384613E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -6674,13 +6824,13 @@
       </c>
       <c r="C29" s="16">
         <f>C28*6</f>
-        <v>5.0769230769230768E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6694,53 +6844,53 @@
     </row>
     <row r="32" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="E32" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E33" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" t="s">
         <v>225</v>
-      </c>
-      <c r="B34" t="s">
-        <v>398</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D34" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -6754,7 +6904,7 @@
     </row>
     <row r="37" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -6766,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -6788,7 +6938,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -6802,7 +6952,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6820,13 +6970,13 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="A4" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -6838,13 +6988,13 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="A7" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
@@ -6863,7 +7013,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -6880,10 +7030,10 @@
     </row>
     <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <v>2.9</v>
@@ -6894,10 +7044,10 @@
     </row>
     <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12">
         <v>1.95</v>
@@ -6908,10 +7058,10 @@
     </row>
     <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13">
         <v>1.95</v>
@@ -6922,7 +7072,7 @@
     </row>
     <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -6936,7 +7086,7 @@
     </row>
     <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -6950,10 +7100,10 @@
     </row>
     <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C16">
         <v>3000</v>
@@ -6964,10 +7114,10 @@
     </row>
     <row r="17" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17">
         <v>1.95</v>
@@ -6978,10 +7128,10 @@
     </row>
     <row r="18" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18">
         <v>1.95</v>
@@ -6992,7 +7142,7 @@
     </row>
     <row r="19" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
@@ -7006,7 +7156,7 @@
     </row>
     <row r="20" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -7020,10 +7170,10 @@
     </row>
     <row r="21" spans="1:5" ht="12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21">
         <v>3000</v>
@@ -7048,7 +7198,7 @@
     </row>
     <row r="24" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>29</v>
@@ -7066,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" t="b">
         <f>C42&lt;C14</f>
@@ -7082,14 +7232,14 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" t="b">
         <f>C43&gt;0.001</f>
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7098,7 +7248,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" t="b">
         <f>C44&lt;C14</f>
@@ -7114,14 +7264,14 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C28" t="b">
         <f>C45&gt;0.001</f>
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7130,7 +7280,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" t="b">
         <f>C46&lt;C14</f>
@@ -7146,14 +7296,14 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" t="b">
         <f>C47&gt;0.001</f>
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7162,7 +7312,7 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C31" t="b">
         <f>C48&lt;C15</f>
@@ -7175,7 +7325,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C32" t="b">
         <f>C49&lt;C20</f>
@@ -7193,7 +7343,7 @@
     </row>
     <row r="35" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>39</v>
@@ -7213,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36">
         <f>(Project!C8-C11)/C14</f>
@@ -7223,7 +7373,7 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7232,7 +7382,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37">
         <f>(Project!C8-C12)/C14</f>
@@ -7242,7 +7392,7 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7251,7 +7401,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38">
         <f>(Project!C8-C13)/C14</f>
@@ -7261,7 +7411,7 @@
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7270,7 +7420,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39">
         <f>(Project!C9-C11)/0.001</f>
@@ -7280,7 +7430,7 @@
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7289,7 +7439,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40">
         <f>(Project!C9-C12)/0.001</f>
@@ -7299,7 +7449,7 @@
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7308,7 +7458,7 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41">
         <f>(Project!C9-C13)/0.001</f>
@@ -7318,7 +7468,7 @@
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7327,7 +7477,7 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C42" s="12">
         <f>(Project!C8-C11)/C16</f>
@@ -7337,7 +7487,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7346,7 +7496,7 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" s="12">
         <f>(Project!C9-C11)/C16</f>
@@ -7356,7 +7506,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7365,7 +7515,7 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="12">
         <f>(Project!C8-C12)/C21</f>
@@ -7375,7 +7525,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7384,7 +7534,7 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C45" s="12">
         <f>(Project!C9-C12)/C21</f>
@@ -7394,7 +7544,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7403,7 +7553,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46" s="12">
         <f>(Project!C8-C13)/C21</f>
@@ -7413,7 +7563,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7422,7 +7572,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" s="12">
         <f>(Project!C9-C13)/C21</f>
@@ -7432,7 +7582,7 @@
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7441,7 +7591,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C48" s="16">
         <f>C11*C42</f>
@@ -7451,7 +7601,7 @@
         <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="12" x14ac:dyDescent="0.15">
@@ -7460,7 +7610,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C49" s="16">
         <f>C44*C17</f>
@@ -7470,7 +7620,7 @@
         <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7486,36 +7636,36 @@
     </row>
     <row r="52" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="E52" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B53" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E53" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -7529,7 +7679,7 @@
     </row>
     <row r="56" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
